--- a/output/proyde.xlsx
+++ b/output/proyde.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="232">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
+    <t>Public_Grant</t>
   </si>
   <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
+    <t>NGO_Country_Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
+    <t>Public_Funds_MAE</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Descentralizada</t>
+    <t>Public_Funds_Decentralized</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Internacional</t>
+    <t>Public_Funds_Internacional</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Otros</t>
+    <t>Public_Funds_Other</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Total</t>
+    <t>Public_Funds_Total</t>
   </si>
   <si>
-    <t>Fondos_Privados_Cuotas</t>
+    <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Fondos_Privados_Donaciones</t>
+    <t>Public_Funds_Donations</t>
   </si>
   <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -1041,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ193"/>
+  <dimension ref="A1:AM193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1050,7 +1059,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,10 +1168,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1261,15 +1279,24 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1368,15 +1395,24 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>58313</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1475,15 +1511,24 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>59520</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1582,15 +1627,24 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>24264</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1689,15 +1743,24 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>24439</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1796,15 +1859,24 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>52111</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1903,15 +1975,24 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>148539</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2010,15 +2091,24 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>59838</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2117,15 +2207,24 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>41622</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2224,15 +2323,24 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2331,15 +2439,24 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>294801</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2438,15 +2555,24 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>110674</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2545,15 +2671,24 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>6150</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2652,15 +2787,24 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>30015</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2759,15 +2903,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>90965</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2866,15 +3019,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>251375</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2973,15 +3135,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>27410</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3080,15 +3251,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>382026</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3187,15 +3367,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>141900</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3294,15 +3483,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>9000</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3401,15 +3599,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>22554</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3508,15 +3715,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>261602</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3615,15 +3831,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>197529</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3722,15 +3947,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>39607</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3829,15 +4063,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>11330</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3936,15 +4179,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>7500</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4043,15 +4295,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>238403</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4150,15 +4411,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>175098</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4257,15 +4527,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>85767</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4364,15 +4643,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>6692</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4471,15 +4759,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>3474</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4578,15 +4875,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>570456</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4685,15 +4991,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>202713</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4792,15 +5107,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>18797</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4899,15 +5223,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>8014</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5006,15 +5339,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>32434</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5113,15 +5455,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>171962</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5220,15 +5571,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>15768</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5327,15 +5687,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>294349</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5434,15 +5803,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>105593</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5541,15 +5919,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>6025</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5648,15 +6035,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>23008</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5755,15 +6151,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>10027</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5862,15 +6267,24 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>3747</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5969,15 +6383,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>49403</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6076,15 +6499,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>243787</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6183,15 +6615,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>96822</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6290,15 +6731,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>44585</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6397,15 +6847,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>84061</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6504,15 +6963,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>128618</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -6611,15 +7079,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>27885</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6718,15 +7195,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>50019</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6825,15 +7311,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>8260</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -6932,15 +7427,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>41638</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7039,15 +7543,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>147329</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7146,15 +7659,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>307419</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7253,15 +7775,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>411812</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7360,15 +7891,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>49596</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7467,15 +8007,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>367134</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7574,15 +8123,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>6002</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -7681,15 +8239,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>36513</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -7788,15 +8355,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>76009</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7895,15 +8471,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>34703</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8002,15 +8587,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>32512</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8109,15 +8703,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>5002</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8216,15 +8819,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8323,15 +8935,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>65487</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8430,15 +9051,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>62447</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8537,15 +9167,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>18007</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8644,15 +9283,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>7205</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8751,15 +9399,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>12597</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -8858,15 +9515,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>173381</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8965,15 +9631,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>10964</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9072,15 +9747,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>10004</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -9179,15 +9863,24 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>66583</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9286,15 +9979,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>41319.5</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9393,15 +10095,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>1</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>14717</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9500,15 +10211,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>4800.5</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9607,15 +10327,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>654.5</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -9714,15 +10443,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>11597.5</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -9821,15 +10559,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>64233.5</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -9928,15 +10675,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>56689.5</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10035,15 +10791,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>11449.5</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -10142,15 +10907,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>5400</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -10249,15 +11023,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>111362</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -10356,15 +11139,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>59901</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10463,15 +11255,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>22611.5</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10570,15 +11371,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>56850</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -10677,15 +11487,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>42847</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -10784,15 +11603,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>3216.5</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10891,15 +11719,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>1</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>29787</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -10998,15 +11835,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>8486.5</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -11105,15 +11951,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>21993.5</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -11212,15 +12067,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>108077.5</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -11319,15 +12183,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>300.5</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -11426,15 +12299,24 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
         <v>4752</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -11533,15 +12415,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>1</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>41319.5</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -11640,15 +12531,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>1</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AM99">
         <v>14717</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -11747,15 +12647,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>1</v>
+      </c>
+      <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
         <v>4800.5</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -11854,15 +12763,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI101">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>1</v>
+      </c>
+      <c r="AL101">
+        <v>1</v>
+      </c>
+      <c r="AM101">
         <v>654.5</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -11961,15 +12879,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI102">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>1</v>
+      </c>
+      <c r="AM102">
         <v>11597.5</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -12068,15 +12995,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI103">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103">
         <v>64233.5</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -12175,15 +13111,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI104">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>1</v>
+      </c>
+      <c r="AM104">
         <v>56689.5</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12282,15 +13227,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI105">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>0</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AM105">
         <v>11449.5</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -12389,15 +13343,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI106">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>0</v>
+      </c>
+      <c r="AL106">
+        <v>1</v>
+      </c>
+      <c r="AM106">
         <v>5400</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -12496,15 +13459,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI107">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>1</v>
+      </c>
+      <c r="AM107">
         <v>111362</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -12603,15 +13575,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI108">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
+      <c r="AM108">
         <v>59901</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -12710,15 +13691,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI109">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>0</v>
+      </c>
+      <c r="AL109">
+        <v>1</v>
+      </c>
+      <c r="AM109">
         <v>22611.5</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -12817,15 +13807,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI110">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
+      <c r="AL110">
+        <v>1</v>
+      </c>
+      <c r="AM110">
         <v>56850</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -12924,15 +13923,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI111">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="AM111">
         <v>42847</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -13031,15 +14039,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI112">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>0</v>
+      </c>
+      <c r="AL112">
+        <v>1</v>
+      </c>
+      <c r="AM112">
         <v>3216.5</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -13138,15 +14155,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI113">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>1</v>
+      </c>
+      <c r="AL113">
+        <v>1</v>
+      </c>
+      <c r="AM113">
         <v>29787</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:39">
       <c r="A114" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -13245,15 +14271,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI114">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>1</v>
+      </c>
+      <c r="AM114">
         <v>8486.5</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:39">
       <c r="A115" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -13352,15 +14387,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI115">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>1</v>
+      </c>
+      <c r="AM115">
         <v>21993.5</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:39">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -13459,15 +14503,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI116">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>0</v>
+      </c>
+      <c r="AL116">
+        <v>1</v>
+      </c>
+      <c r="AM116">
         <v>108077.5</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:39">
       <c r="A117" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -13566,15 +14619,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI117">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ117">
+        <v>0</v>
+      </c>
+      <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>1</v>
+      </c>
+      <c r="AM117">
         <v>300.5</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:39">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -13673,15 +14735,24 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI118">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ118">
+        <v>0</v>
+      </c>
+      <c r="AK118">
+        <v>0</v>
+      </c>
+      <c r="AL118">
+        <v>1</v>
+      </c>
+      <c r="AM118">
         <v>4752</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:39">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -13780,15 +14851,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI119">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ119">
+        <v>0</v>
+      </c>
+      <c r="AK119">
+        <v>1</v>
+      </c>
+      <c r="AL119">
+        <v>1</v>
+      </c>
+      <c r="AM119">
         <v>44500</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:39">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -13887,15 +14967,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI120">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ120">
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>1</v>
+      </c>
+      <c r="AM120">
         <v>189070.5</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:39">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -13994,15 +15083,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI121">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
+        <v>0</v>
+      </c>
+      <c r="AL121">
+        <v>1</v>
+      </c>
+      <c r="AM121">
         <v>185529</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:39">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -14101,15 +15199,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI122">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>1</v>
+      </c>
+      <c r="AM122">
         <v>34878.5</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:39">
       <c r="A123" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -14208,15 +15315,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI123">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>1</v>
+      </c>
+      <c r="AM123">
         <v>7002.5</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:39">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -14315,21 +15431,30 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI124">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>1</v>
+      </c>
+      <c r="AM124">
         <v>46471</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:39">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -14422,15 +15547,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI125">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ125">
+        <v>0</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>1</v>
+      </c>
+      <c r="AM125">
         <v>14037.5</v>
       </c>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:39">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -14529,15 +15663,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI126">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>1</v>
+      </c>
+      <c r="AM126">
         <v>21041.5</v>
       </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:39">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -14636,15 +15779,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI127">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AK127">
+        <v>1</v>
+      </c>
+      <c r="AL127">
+        <v>1</v>
+      </c>
+      <c r="AM127">
         <v>47623</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:39">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -14743,15 +15895,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI128">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ128">
+        <v>0</v>
+      </c>
+      <c r="AK128">
+        <v>0</v>
+      </c>
+      <c r="AL128">
+        <v>1</v>
+      </c>
+      <c r="AM128">
         <v>21743.5</v>
       </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:39">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -14850,15 +16011,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI129">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <v>1</v>
+      </c>
+      <c r="AL129">
+        <v>1</v>
+      </c>
+      <c r="AM129">
         <v>13000.5</v>
       </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:39">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -14957,15 +16127,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI130">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ130">
+        <v>0</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>1</v>
+      </c>
+      <c r="AM130">
         <v>28710</v>
       </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:39">
       <c r="A131" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -15064,15 +16243,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>1</v>
+      </c>
+      <c r="AM131">
         <v>5150</v>
       </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:39">
       <c r="A132" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -15171,15 +16359,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI132">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>1</v>
+      </c>
+      <c r="AM132">
         <v>40888.5</v>
       </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:39">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -15278,15 +16475,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI133">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AK133">
+        <v>1</v>
+      </c>
+      <c r="AL133">
+        <v>1</v>
+      </c>
+      <c r="AM133">
         <v>1097.5</v>
       </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:39">
       <c r="A134" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -15385,15 +16591,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI134">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ134">
+        <v>0</v>
+      </c>
+      <c r="AK134">
+        <v>0</v>
+      </c>
+      <c r="AL134">
+        <v>1</v>
+      </c>
+      <c r="AM134">
         <v>96089.5</v>
       </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:39">
       <c r="A135" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -15492,15 +16707,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI135">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ135">
+        <v>0</v>
+      </c>
+      <c r="AK135">
+        <v>1</v>
+      </c>
+      <c r="AL135">
+        <v>1</v>
+      </c>
+      <c r="AM135">
         <v>625</v>
       </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:39">
       <c r="A136" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -15599,15 +16823,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI136">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ136">
+        <v>0</v>
+      </c>
+      <c r="AK136">
+        <v>1</v>
+      </c>
+      <c r="AL136">
+        <v>1</v>
+      </c>
+      <c r="AM136">
         <v>18839.5</v>
       </c>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:39">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -15706,15 +16939,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI137">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AK137">
+        <v>1</v>
+      </c>
+      <c r="AL137">
+        <v>1</v>
+      </c>
+      <c r="AM137">
         <v>6339</v>
       </c>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:39">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -15813,15 +17055,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI138">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ138">
+        <v>0</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>1</v>
+      </c>
+      <c r="AM138">
         <v>1570</v>
       </c>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:39">
       <c r="A139" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -15920,15 +17171,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI139">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ139">
+        <v>0</v>
+      </c>
+      <c r="AK139">
+        <v>0</v>
+      </c>
+      <c r="AL139">
+        <v>1</v>
+      </c>
+      <c r="AM139">
         <v>23272</v>
       </c>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:39">
       <c r="A140" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -16027,15 +17287,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI140">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ140">
+        <v>0</v>
+      </c>
+      <c r="AK140">
+        <v>0</v>
+      </c>
+      <c r="AL140">
+        <v>1</v>
+      </c>
+      <c r="AM140">
         <v>15000</v>
       </c>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:39">
       <c r="A141" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -16134,15 +17403,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI141">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ141">
+        <v>0</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>1</v>
+      </c>
+      <c r="AM141">
         <v>9700</v>
       </c>
     </row>
-    <row r="142" spans="1:36">
+    <row r="142" spans="1:39">
       <c r="A142" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -16241,15 +17519,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI142">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ142">
+        <v>0</v>
+      </c>
+      <c r="AK142">
+        <v>0</v>
+      </c>
+      <c r="AL142">
+        <v>1</v>
+      </c>
+      <c r="AM142">
         <v>87062</v>
       </c>
     </row>
-    <row r="143" spans="1:36">
+    <row r="143" spans="1:39">
       <c r="A143" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -16348,15 +17635,24 @@
         <v>0.9057014057839149</v>
       </c>
       <c r="AI143">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ143">
+        <v>0</v>
+      </c>
+      <c r="AK143">
+        <v>0</v>
+      </c>
+      <c r="AL143">
+        <v>1</v>
+      </c>
+      <c r="AM143">
         <v>27232</v>
       </c>
     </row>
-    <row r="144" spans="1:36">
+    <row r="144" spans="1:39">
       <c r="A144" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -16455,15 +17751,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI144">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ144">
+        <v>0</v>
+      </c>
+      <c r="AK144">
+        <v>1</v>
+      </c>
+      <c r="AL144">
+        <v>1</v>
+      </c>
+      <c r="AM144">
         <v>44500</v>
       </c>
     </row>
-    <row r="145" spans="1:36">
+    <row r="145" spans="1:39">
       <c r="A145" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -16562,15 +17867,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI145">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ145">
+        <v>0</v>
+      </c>
+      <c r="AK145">
+        <v>0</v>
+      </c>
+      <c r="AL145">
+        <v>1</v>
+      </c>
+      <c r="AM145">
         <v>189070.5</v>
       </c>
     </row>
-    <row r="146" spans="1:36">
+    <row r="146" spans="1:39">
       <c r="A146" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -16669,15 +17983,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI146">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ146">
+        <v>0</v>
+      </c>
+      <c r="AK146">
+        <v>0</v>
+      </c>
+      <c r="AL146">
+        <v>1</v>
+      </c>
+      <c r="AM146">
         <v>185529</v>
       </c>
     </row>
-    <row r="147" spans="1:36">
+    <row r="147" spans="1:39">
       <c r="A147" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -16776,15 +18099,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI147">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ147">
+        <v>0</v>
+      </c>
+      <c r="AK147">
+        <v>0</v>
+      </c>
+      <c r="AL147">
+        <v>1</v>
+      </c>
+      <c r="AM147">
         <v>34878.5</v>
       </c>
     </row>
-    <row r="148" spans="1:36">
+    <row r="148" spans="1:39">
       <c r="A148" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -16883,15 +18215,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI148">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ148">
+        <v>0</v>
+      </c>
+      <c r="AK148">
+        <v>0</v>
+      </c>
+      <c r="AL148">
+        <v>1</v>
+      </c>
+      <c r="AM148">
         <v>7002.5</v>
       </c>
     </row>
-    <row r="149" spans="1:36">
+    <row r="149" spans="1:39">
       <c r="A149" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -16990,21 +18331,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI149">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ149">
+        <v>0</v>
+      </c>
+      <c r="AK149">
+        <v>0</v>
+      </c>
+      <c r="AL149">
+        <v>1</v>
+      </c>
+      <c r="AM149">
         <v>46471</v>
       </c>
     </row>
-    <row r="150" spans="1:36">
+    <row r="150" spans="1:39">
       <c r="A150" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -17097,15 +18447,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI150">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ150">
+        <v>0</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>1</v>
+      </c>
+      <c r="AM150">
         <v>14037.5</v>
       </c>
     </row>
-    <row r="151" spans="1:36">
+    <row r="151" spans="1:39">
       <c r="A151" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -17204,15 +18563,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI151">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ151">
+        <v>0</v>
+      </c>
+      <c r="AK151">
+        <v>0</v>
+      </c>
+      <c r="AL151">
+        <v>1</v>
+      </c>
+      <c r="AM151">
         <v>21041.5</v>
       </c>
     </row>
-    <row r="152" spans="1:36">
+    <row r="152" spans="1:39">
       <c r="A152" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -17311,15 +18679,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI152">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ152">
+        <v>0</v>
+      </c>
+      <c r="AK152">
+        <v>1</v>
+      </c>
+      <c r="AL152">
+        <v>1</v>
+      </c>
+      <c r="AM152">
         <v>47623</v>
       </c>
     </row>
-    <row r="153" spans="1:36">
+    <row r="153" spans="1:39">
       <c r="A153" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -17418,15 +18795,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI153">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ153">
+        <v>0</v>
+      </c>
+      <c r="AK153">
+        <v>0</v>
+      </c>
+      <c r="AL153">
+        <v>1</v>
+      </c>
+      <c r="AM153">
         <v>21743.5</v>
       </c>
     </row>
-    <row r="154" spans="1:36">
+    <row r="154" spans="1:39">
       <c r="A154" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -17525,15 +18911,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI154">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ154">
+        <v>0</v>
+      </c>
+      <c r="AK154">
+        <v>1</v>
+      </c>
+      <c r="AL154">
+        <v>1</v>
+      </c>
+      <c r="AM154">
         <v>13000.5</v>
       </c>
     </row>
-    <row r="155" spans="1:36">
+    <row r="155" spans="1:39">
       <c r="A155" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -17632,15 +19027,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI155">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ155">
+        <v>0</v>
+      </c>
+      <c r="AK155">
+        <v>0</v>
+      </c>
+      <c r="AL155">
+        <v>1</v>
+      </c>
+      <c r="AM155">
         <v>28710</v>
       </c>
     </row>
-    <row r="156" spans="1:36">
+    <row r="156" spans="1:39">
       <c r="A156" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -17739,15 +19143,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI156">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ156">
+        <v>0</v>
+      </c>
+      <c r="AK156">
+        <v>0</v>
+      </c>
+      <c r="AL156">
+        <v>1</v>
+      </c>
+      <c r="AM156">
         <v>5150</v>
       </c>
     </row>
-    <row r="157" spans="1:36">
+    <row r="157" spans="1:39">
       <c r="A157" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -17846,15 +19259,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI157">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ157">
+        <v>0</v>
+      </c>
+      <c r="AK157">
+        <v>0</v>
+      </c>
+      <c r="AL157">
+        <v>1</v>
+      </c>
+      <c r="AM157">
         <v>40888.5</v>
       </c>
     </row>
-    <row r="158" spans="1:36">
+    <row r="158" spans="1:39">
       <c r="A158" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -17953,15 +19375,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI158">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ158">
+        <v>0</v>
+      </c>
+      <c r="AK158">
+        <v>1</v>
+      </c>
+      <c r="AL158">
+        <v>1</v>
+      </c>
+      <c r="AM158">
         <v>1097.5</v>
       </c>
     </row>
-    <row r="159" spans="1:36">
+    <row r="159" spans="1:39">
       <c r="A159" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -18060,15 +19491,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI159">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ159">
+        <v>0</v>
+      </c>
+      <c r="AK159">
+        <v>0</v>
+      </c>
+      <c r="AL159">
+        <v>1</v>
+      </c>
+      <c r="AM159">
         <v>96089.5</v>
       </c>
     </row>
-    <row r="160" spans="1:36">
+    <row r="160" spans="1:39">
       <c r="A160" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -18167,15 +19607,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI160">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ160">
+        <v>0</v>
+      </c>
+      <c r="AK160">
+        <v>1</v>
+      </c>
+      <c r="AL160">
+        <v>1</v>
+      </c>
+      <c r="AM160">
         <v>625</v>
       </c>
     </row>
-    <row r="161" spans="1:36">
+    <row r="161" spans="1:39">
       <c r="A161" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -18274,15 +19723,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI161">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ161">
+        <v>0</v>
+      </c>
+      <c r="AK161">
+        <v>1</v>
+      </c>
+      <c r="AL161">
+        <v>1</v>
+      </c>
+      <c r="AM161">
         <v>18839.5</v>
       </c>
     </row>
-    <row r="162" spans="1:36">
+    <row r="162" spans="1:39">
       <c r="A162" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -18381,15 +19839,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI162">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ162">
+        <v>0</v>
+      </c>
+      <c r="AK162">
+        <v>1</v>
+      </c>
+      <c r="AL162">
+        <v>1</v>
+      </c>
+      <c r="AM162">
         <v>6339</v>
       </c>
     </row>
-    <row r="163" spans="1:36">
+    <row r="163" spans="1:39">
       <c r="A163" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -18488,15 +19955,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI163">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ163">
+        <v>0</v>
+      </c>
+      <c r="AK163">
+        <v>0</v>
+      </c>
+      <c r="AL163">
+        <v>1</v>
+      </c>
+      <c r="AM163">
         <v>1570</v>
       </c>
     </row>
-    <row r="164" spans="1:36">
+    <row r="164" spans="1:39">
       <c r="A164" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -18595,15 +20071,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI164">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ164">
+        <v>0</v>
+      </c>
+      <c r="AK164">
+        <v>0</v>
+      </c>
+      <c r="AL164">
+        <v>1</v>
+      </c>
+      <c r="AM164">
         <v>23272</v>
       </c>
     </row>
-    <row r="165" spans="1:36">
+    <row r="165" spans="1:39">
       <c r="A165" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -18702,15 +20187,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI165">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ165">
+        <v>0</v>
+      </c>
+      <c r="AK165">
+        <v>0</v>
+      </c>
+      <c r="AL165">
+        <v>1</v>
+      </c>
+      <c r="AM165">
         <v>15000</v>
       </c>
     </row>
-    <row r="166" spans="1:36">
+    <row r="166" spans="1:39">
       <c r="A166" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -18809,15 +20303,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI166">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ166">
+        <v>0</v>
+      </c>
+      <c r="AK166">
+        <v>0</v>
+      </c>
+      <c r="AL166">
+        <v>1</v>
+      </c>
+      <c r="AM166">
         <v>9700</v>
       </c>
     </row>
-    <row r="167" spans="1:36">
+    <row r="167" spans="1:39">
       <c r="A167" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -18916,15 +20419,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI167">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ167">
+        <v>0</v>
+      </c>
+      <c r="AK167">
+        <v>0</v>
+      </c>
+      <c r="AL167">
+        <v>1</v>
+      </c>
+      <c r="AM167">
         <v>87062</v>
       </c>
     </row>
-    <row r="168" spans="1:36">
+    <row r="168" spans="1:39">
       <c r="A168" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -19023,15 +20535,24 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI168">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ168">
+        <v>0</v>
+      </c>
+      <c r="AK168">
+        <v>0</v>
+      </c>
+      <c r="AL168">
+        <v>1</v>
+      </c>
+      <c r="AM168">
         <v>27232</v>
       </c>
     </row>
-    <row r="169" spans="1:36">
+    <row r="169" spans="1:39">
       <c r="A169" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -19130,15 +20651,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI169">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ169">
+        <v>0</v>
+      </c>
+      <c r="AK169">
+        <v>0</v>
+      </c>
+      <c r="AL169">
+        <v>1</v>
+      </c>
+      <c r="AM169">
         <v>557301</v>
       </c>
     </row>
-    <row r="170" spans="1:36">
+    <row r="170" spans="1:39">
       <c r="A170" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -19237,15 +20767,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI170">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ170">
+        <v>0</v>
+      </c>
+      <c r="AK170">
+        <v>0</v>
+      </c>
+      <c r="AL170">
+        <v>1</v>
+      </c>
+      <c r="AM170">
         <v>37744</v>
       </c>
     </row>
-    <row r="171" spans="1:36">
+    <row r="171" spans="1:39">
       <c r="A171" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -19344,15 +20883,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI171">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ171">
+        <v>0</v>
+      </c>
+      <c r="AK171">
+        <v>0</v>
+      </c>
+      <c r="AL171">
+        <v>1</v>
+      </c>
+      <c r="AM171">
         <v>22530</v>
       </c>
     </row>
-    <row r="172" spans="1:36">
+    <row r="172" spans="1:39">
       <c r="A172" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -19451,21 +20999,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI172">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ172">
+        <v>0</v>
+      </c>
+      <c r="AK172">
+        <v>0</v>
+      </c>
+      <c r="AL172">
+        <v>1</v>
+      </c>
+      <c r="AM172">
         <v>80837</v>
       </c>
     </row>
-    <row r="173" spans="1:36">
+    <row r="173" spans="1:39">
       <c r="A173" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -19558,15 +21115,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI173">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ173">
+        <v>0</v>
+      </c>
+      <c r="AK173">
+        <v>1</v>
+      </c>
+      <c r="AL173">
+        <v>1</v>
+      </c>
+      <c r="AM173">
         <v>7803</v>
       </c>
     </row>
-    <row r="174" spans="1:36">
+    <row r="174" spans="1:39">
       <c r="A174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -19665,15 +21231,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI174">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ174">
+        <v>0</v>
+      </c>
+      <c r="AK174">
+        <v>0</v>
+      </c>
+      <c r="AL174">
+        <v>1</v>
+      </c>
+      <c r="AM174">
         <v>15756</v>
       </c>
     </row>
-    <row r="175" spans="1:36">
+    <row r="175" spans="1:39">
       <c r="A175" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -19772,15 +21347,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI175">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ175">
+        <v>0</v>
+      </c>
+      <c r="AK175">
+        <v>0</v>
+      </c>
+      <c r="AL175">
+        <v>1</v>
+      </c>
+      <c r="AM175">
         <v>83507</v>
       </c>
     </row>
-    <row r="176" spans="1:36">
+    <row r="176" spans="1:39">
       <c r="A176" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -19879,15 +21463,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI176">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ176">
+        <v>0</v>
+      </c>
+      <c r="AK176">
+        <v>1</v>
+      </c>
+      <c r="AL176">
+        <v>1</v>
+      </c>
+      <c r="AM176">
         <v>204578</v>
       </c>
     </row>
-    <row r="177" spans="1:36">
+    <row r="177" spans="1:39">
       <c r="A177" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -19986,15 +21579,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI177">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ177">
+        <v>0</v>
+      </c>
+      <c r="AK177">
+        <v>0</v>
+      </c>
+      <c r="AL177">
+        <v>1</v>
+      </c>
+      <c r="AM177">
         <v>1000</v>
       </c>
     </row>
-    <row r="178" spans="1:36">
+    <row r="178" spans="1:39">
       <c r="A178" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -20093,15 +21695,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI178">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ178">
+        <v>0</v>
+      </c>
+      <c r="AK178">
+        <v>1</v>
+      </c>
+      <c r="AL178">
+        <v>1</v>
+      </c>
+      <c r="AM178">
         <v>6000</v>
       </c>
     </row>
-    <row r="179" spans="1:36">
+    <row r="179" spans="1:39">
       <c r="A179" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -20200,15 +21811,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI179">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ179">
+        <v>0</v>
+      </c>
+      <c r="AK179">
+        <v>0</v>
+      </c>
+      <c r="AL179">
+        <v>1</v>
+      </c>
+      <c r="AM179">
         <v>263492</v>
       </c>
     </row>
-    <row r="180" spans="1:36">
+    <row r="180" spans="1:39">
       <c r="A180" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -20307,15 +21927,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI180">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ180">
+        <v>0</v>
+      </c>
+      <c r="AK180">
+        <v>0</v>
+      </c>
+      <c r="AL180">
+        <v>1</v>
+      </c>
+      <c r="AM180">
         <v>79196</v>
       </c>
     </row>
-    <row r="181" spans="1:36">
+    <row r="181" spans="1:39">
       <c r="A181" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -20414,15 +22043,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI181">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ181">
+        <v>0</v>
+      </c>
+      <c r="AK181">
+        <v>0</v>
+      </c>
+      <c r="AL181">
+        <v>1</v>
+      </c>
+      <c r="AM181">
         <v>3400</v>
       </c>
     </row>
-    <row r="182" spans="1:36">
+    <row r="182" spans="1:39">
       <c r="A182" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -20521,15 +22159,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI182">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ182">
+        <v>0</v>
+      </c>
+      <c r="AK182">
+        <v>0</v>
+      </c>
+      <c r="AL182">
+        <v>1</v>
+      </c>
+      <c r="AM182">
         <v>44819</v>
       </c>
     </row>
-    <row r="183" spans="1:36">
+    <row r="183" spans="1:39">
       <c r="A183" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -20628,15 +22275,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI183">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ183">
+        <v>0</v>
+      </c>
+      <c r="AK183">
+        <v>1</v>
+      </c>
+      <c r="AL183">
+        <v>1</v>
+      </c>
+      <c r="AM183">
         <v>2707</v>
       </c>
     </row>
-    <row r="184" spans="1:36">
+    <row r="184" spans="1:39">
       <c r="A184" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -20735,15 +22391,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI184">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ184">
+        <v>0</v>
+      </c>
+      <c r="AK184">
+        <v>0</v>
+      </c>
+      <c r="AL184">
+        <v>1</v>
+      </c>
+      <c r="AM184">
         <v>50398</v>
       </c>
     </row>
-    <row r="185" spans="1:36">
+    <row r="185" spans="1:39">
       <c r="A185" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -20842,15 +22507,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI185">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ185">
+        <v>0</v>
+      </c>
+      <c r="AK185">
+        <v>0</v>
+      </c>
+      <c r="AL185">
+        <v>1</v>
+      </c>
+      <c r="AM185">
         <v>6200</v>
       </c>
     </row>
-    <row r="186" spans="1:36">
+    <row r="186" spans="1:39">
       <c r="A186" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -20949,15 +22623,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI186">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ186">
+        <v>0</v>
+      </c>
+      <c r="AK186">
+        <v>1</v>
+      </c>
+      <c r="AL186">
+        <v>1</v>
+      </c>
+      <c r="AM186">
         <v>221978</v>
       </c>
     </row>
-    <row r="187" spans="1:36">
+    <row r="187" spans="1:39">
       <c r="A187" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -21056,15 +22739,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI187">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ187">
+        <v>0</v>
+      </c>
+      <c r="AK187">
+        <v>1</v>
+      </c>
+      <c r="AL187">
+        <v>1</v>
+      </c>
+      <c r="AM187">
         <v>4502</v>
       </c>
     </row>
-    <row r="188" spans="1:36">
+    <row r="188" spans="1:39">
       <c r="A188" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -21163,15 +22855,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI188">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ188">
+        <v>0</v>
+      </c>
+      <c r="AK188">
+        <v>0</v>
+      </c>
+      <c r="AL188">
+        <v>1</v>
+      </c>
+      <c r="AM188">
         <v>120943</v>
       </c>
     </row>
-    <row r="189" spans="1:36">
+    <row r="189" spans="1:39">
       <c r="A189" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -21270,15 +22971,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI189">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ189">
+        <v>0</v>
+      </c>
+      <c r="AK189">
+        <v>0</v>
+      </c>
+      <c r="AL189">
+        <v>1</v>
+      </c>
+      <c r="AM189">
         <v>29868</v>
       </c>
     </row>
-    <row r="190" spans="1:36">
+    <row r="190" spans="1:39">
       <c r="A190" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -21377,15 +23087,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI190">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ190">
+        <v>0</v>
+      </c>
+      <c r="AK190">
+        <v>0</v>
+      </c>
+      <c r="AL190">
+        <v>1</v>
+      </c>
+      <c r="AM190">
         <v>19000</v>
       </c>
     </row>
-    <row r="191" spans="1:36">
+    <row r="191" spans="1:39">
       <c r="A191" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -21484,15 +23203,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI191">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ191">
+        <v>0</v>
+      </c>
+      <c r="AK191">
+        <v>0</v>
+      </c>
+      <c r="AL191">
+        <v>1</v>
+      </c>
+      <c r="AM191">
         <v>9445</v>
       </c>
     </row>
-    <row r="192" spans="1:36">
+    <row r="192" spans="1:39">
       <c r="A192" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -21591,15 +23319,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI192">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ192">
+        <v>0</v>
+      </c>
+      <c r="AK192">
+        <v>0</v>
+      </c>
+      <c r="AL192">
+        <v>1</v>
+      </c>
+      <c r="AM192">
         <v>176153</v>
       </c>
     </row>
-    <row r="193" spans="1:36">
+    <row r="193" spans="1:39">
       <c r="A193" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -21698,9 +23435,18 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI193">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ193">
+        <v>0</v>
+      </c>
+      <c r="AK193">
+        <v>0</v>
+      </c>
+      <c r="AL193">
+        <v>1</v>
+      </c>
+      <c r="AM193">
         <v>167734</v>
       </c>
     </row>

--- a/output/proyde.xlsx
+++ b/output/proyde.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="234">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
+    <t>Private_Funds_Donations</t>
   </si>
   <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -1050,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM193"/>
+  <dimension ref="A1:AO193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1059,7 +1065,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,10 +1183,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1279,24 +1291,30 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI2">
+        <v>0.2099599143516354</v>
+      </c>
+      <c r="AJ2">
         <v>1988</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1395,24 +1413,30 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI3">
+        <v>0.2099599143516354</v>
+      </c>
+      <c r="AJ3">
         <v>1988</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>58313</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1511,24 +1535,30 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI4">
+        <v>0.2099599143516354</v>
+      </c>
+      <c r="AJ4">
         <v>1988</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>59520</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1627,24 +1657,30 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI5">
+        <v>0.2099599143516354</v>
+      </c>
+      <c r="AJ5">
         <v>1988</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>24264</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1743,24 +1779,30 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI6">
+        <v>0.2099599143516354</v>
+      </c>
+      <c r="AJ6">
         <v>1988</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>24439</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1859,24 +1901,30 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI7">
+        <v>0.2099599143516354</v>
+      </c>
+      <c r="AJ7">
         <v>1988</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>52111</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1975,24 +2023,30 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI8">
+        <v>0.2099599143516354</v>
+      </c>
+      <c r="AJ8">
         <v>1988</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>148539</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2091,24 +2145,30 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI9">
+        <v>0.2099599143516354</v>
+      </c>
+      <c r="AJ9">
         <v>1988</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>59838</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2207,24 +2267,30 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI10">
+        <v>0.2099599143516354</v>
+      </c>
+      <c r="AJ10">
         <v>1988</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>41622</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2323,24 +2389,30 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI11">
+        <v>0.2099599143516354</v>
+      </c>
+      <c r="AJ11">
         <v>1988</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2439,24 +2511,30 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI12">
+        <v>0.2099599143516354</v>
+      </c>
+      <c r="AJ12">
         <v>1988</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>294801</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2555,24 +2633,30 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI13">
+        <v>0.2099599143516354</v>
+      </c>
+      <c r="AJ13">
         <v>1988</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>110674</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2671,24 +2755,30 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI14">
+        <v>0.2099599143516354</v>
+      </c>
+      <c r="AJ14">
         <v>1988</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>6150</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2787,24 +2877,30 @@
         <v>0.3788957315129875</v>
       </c>
       <c r="AI15">
+        <v>0.2099599143516354</v>
+      </c>
+      <c r="AJ15">
         <v>1988</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>30015</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2903,24 +2999,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI16">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ16">
         <v>1988</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>90965</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3019,24 +3121,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI17">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ17">
         <v>1988</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>251375</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3135,24 +3243,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI18">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ18">
         <v>1988</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>27410</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3251,24 +3365,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI19">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ19">
         <v>1988</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>382026</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3367,24 +3487,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI20">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ20">
         <v>1988</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>141900</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3483,24 +3609,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI21">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ21">
         <v>1988</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>9000</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3599,24 +3731,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI22">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ22">
         <v>1988</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>22554</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3715,24 +3853,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI23">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ23">
         <v>1988</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>261602</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3831,24 +3975,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI24">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ24">
         <v>1988</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>197529</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3947,24 +4097,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI25">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ25">
         <v>1988</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>39607</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4063,24 +4219,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI26">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ26">
         <v>1988</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>11330</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4179,24 +4341,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI27">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ27">
         <v>1988</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>7500</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4295,24 +4463,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI28">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ28">
         <v>1988</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>238403</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4411,24 +4585,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI29">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ29">
         <v>1988</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>175098</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4527,24 +4707,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI30">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ30">
         <v>1988</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>85767</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4643,24 +4829,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI31">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ31">
         <v>1988</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>6692</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4759,24 +4951,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI32">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ32">
         <v>1988</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>3474</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4875,24 +5073,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI33">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ33">
         <v>1988</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>570456</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4991,24 +5195,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI34">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ34">
         <v>1988</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>1</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>202713</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5107,24 +5317,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI35">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ35">
         <v>1988</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>18797</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5223,24 +5439,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI36">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ36">
         <v>1988</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>8014</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5339,24 +5561,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI37">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ37">
         <v>1988</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>32434</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5455,24 +5683,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI38">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ38">
         <v>1988</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>171962</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5571,24 +5805,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI39">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ39">
         <v>1988</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>15768</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5687,24 +5927,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI40">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ40">
         <v>1988</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40">
         <v>1</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>294349</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5803,24 +6049,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI41">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ41">
         <v>1988</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>105593</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5919,24 +6171,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI42">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ42">
         <v>1988</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>6025</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -6035,24 +6293,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI43">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ43">
         <v>1988</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>23008</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6151,24 +6415,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI44">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ44">
         <v>1988</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>10027</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6267,24 +6537,30 @@
         <v>0.4795378967213347</v>
       </c>
       <c r="AI45">
+        <v>0.1475816122584943</v>
+      </c>
+      <c r="AJ45">
         <v>1988</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>3747</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6383,24 +6659,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI46">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ46">
         <v>1988</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>49403</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6499,24 +6781,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI47">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ47">
         <v>1988</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>243787</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6615,24 +6903,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI48">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ48">
         <v>1988</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>1</v>
       </c>
       <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>96822</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6731,24 +7025,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI49">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ49">
         <v>1988</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>44585</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6847,24 +7147,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI50">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ50">
         <v>1988</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>84061</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6963,24 +7269,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI51">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ51">
         <v>1988</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>128618</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -7079,24 +7391,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI52">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ52">
         <v>1988</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
         <v>0</v>
       </c>
       <c r="AL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>27885</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7195,24 +7513,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI53">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ53">
         <v>1988</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
         <v>0</v>
       </c>
       <c r="AL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>50019</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7311,24 +7635,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI54">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ54">
         <v>1988</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>8260</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -7427,24 +7757,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI55">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ55">
         <v>1988</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>41638</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7543,24 +7879,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI56">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ56">
         <v>1988</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>147329</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7659,24 +8001,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI57">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ57">
         <v>1988</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57">
         <v>1</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>307419</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7775,24 +8123,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI58">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ58">
         <v>1988</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>411812</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7891,24 +8245,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI59">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ59">
         <v>1988</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59">
         <v>1</v>
       </c>
       <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>49596</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -8007,24 +8367,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI60">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ60">
         <v>1988</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>367134</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -8123,24 +8489,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI61">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ61">
         <v>1988</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>6002</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -8239,24 +8611,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI62">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ62">
         <v>1988</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
         <v>0</v>
       </c>
       <c r="AL62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>36513</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -8355,24 +8733,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI63">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ63">
         <v>1988</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
         <v>0</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>76009</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8471,24 +8855,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI64">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ64">
         <v>1988</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64">
         <v>1</v>
       </c>
       <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>34703</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8587,24 +8977,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI65">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ65">
         <v>1988</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
         <v>0</v>
       </c>
       <c r="AL65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>32512</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8703,24 +9099,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI66">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ66">
         <v>1988</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
         <v>0</v>
       </c>
       <c r="AL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>5002</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8819,24 +9221,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI67">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ67">
         <v>1988</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67">
         <v>1</v>
       </c>
       <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8935,24 +9343,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI68">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ68">
         <v>1988</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68">
         <v>1</v>
       </c>
       <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>65487</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -9051,24 +9465,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI69">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ69">
         <v>1988</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
         <v>0</v>
       </c>
       <c r="AL69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>62447</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -9167,24 +9587,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI70">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ70">
         <v>1988</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
         <v>0</v>
       </c>
       <c r="AL70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>18007</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -9283,24 +9709,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI71">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ71">
         <v>1988</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
         <v>0</v>
       </c>
       <c r="AL71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>7205</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -9399,24 +9831,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI72">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ72">
         <v>1988</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
         <v>0</v>
       </c>
       <c r="AL72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>12597</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -9515,24 +9953,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI73">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ73">
         <v>1988</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
         <v>0</v>
       </c>
       <c r="AL73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>173381</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9631,24 +10075,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI74">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ74">
         <v>1988</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
         <v>0</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>10964</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9747,24 +10197,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI75">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ75">
         <v>1988</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
         <v>0</v>
       </c>
       <c r="AL75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>10004</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -9863,24 +10319,30 @@
         <v>0.6762120328062551</v>
       </c>
       <c r="AI76">
+        <v>0.1144147723082024</v>
+      </c>
+      <c r="AJ76">
         <v>1988</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
         <v>0</v>
       </c>
       <c r="AL76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>66583</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9979,24 +10441,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
         <v>1988</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77">
         <v>1</v>
       </c>
       <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>41319.5</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -10095,24 +10563,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
         <v>1988</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78">
         <v>1</v>
       </c>
       <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>14717</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -10211,24 +10685,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
         <v>1988</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79">
         <v>1</v>
       </c>
       <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>4800.5</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -10327,24 +10807,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
         <v>1988</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80">
         <v>1</v>
       </c>
       <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>654.5</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -10443,24 +10929,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
         <v>1988</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
         <v>0</v>
       </c>
       <c r="AL81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>11597.5</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -10559,24 +11051,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
         <v>1988</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
         <v>0</v>
       </c>
       <c r="AL82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>64233.5</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -10675,24 +11173,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
         <v>1988</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
         <v>0</v>
       </c>
       <c r="AL83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>56689.5</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10791,24 +11295,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
         <v>1988</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
         <v>0</v>
       </c>
       <c r="AL84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>11449.5</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -10907,24 +11417,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
         <v>1988</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
         <v>0</v>
       </c>
       <c r="AL85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>5400</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -11023,24 +11539,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
         <v>1988</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
         <v>0</v>
       </c>
       <c r="AL86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>111362</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -11139,24 +11661,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
         <v>1988</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>59901</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -11255,24 +11783,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
         <v>1988</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
         <v>0</v>
       </c>
       <c r="AL88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>22611.5</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -11371,24 +11905,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
         <v>1988</v>
       </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
       <c r="AK89">
         <v>0</v>
       </c>
       <c r="AL89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>56850</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -11487,24 +12027,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
         <v>1988</v>
       </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
       <c r="AK90">
         <v>0</v>
       </c>
       <c r="AL90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>42847</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -11603,24 +12149,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
         <v>1988</v>
       </c>
-      <c r="AJ91">
-        <v>0</v>
-      </c>
       <c r="AK91">
         <v>0</v>
       </c>
       <c r="AL91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>3216.5</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11719,24 +12271,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
         <v>1988</v>
       </c>
-      <c r="AJ92">
-        <v>0</v>
-      </c>
       <c r="AK92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL92">
         <v>1</v>
       </c>
       <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>29787</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -11835,24 +12393,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
         <v>1988</v>
       </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
       <c r="AK93">
         <v>0</v>
       </c>
       <c r="AL93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
         <v>8486.5</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -11951,24 +12515,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
         <v>1988</v>
       </c>
-      <c r="AJ94">
-        <v>0</v>
-      </c>
       <c r="AK94">
         <v>0</v>
       </c>
       <c r="AL94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
         <v>21993.5</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -12067,24 +12637,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
         <v>1988</v>
       </c>
-      <c r="AJ95">
-        <v>0</v>
-      </c>
       <c r="AK95">
         <v>0</v>
       </c>
       <c r="AL95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
         <v>108077.5</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -12183,24 +12759,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
         <v>1988</v>
       </c>
-      <c r="AJ96">
-        <v>0</v>
-      </c>
       <c r="AK96">
         <v>0</v>
       </c>
       <c r="AL96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
         <v>300.5</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -12299,24 +12881,30 @@
         <v>0.8008734407821453</v>
       </c>
       <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
         <v>1988</v>
       </c>
-      <c r="AJ97">
-        <v>0</v>
-      </c>
       <c r="AK97">
         <v>0</v>
       </c>
       <c r="AL97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
         <v>4752</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -12415,24 +13003,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
         <v>1988</v>
       </c>
-      <c r="AJ98">
-        <v>0</v>
-      </c>
       <c r="AK98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL98">
         <v>1</v>
       </c>
       <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
         <v>41319.5</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -12531,24 +13125,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
         <v>1988</v>
       </c>
-      <c r="AJ99">
-        <v>0</v>
-      </c>
       <c r="AK99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL99">
         <v>1</v>
       </c>
       <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
         <v>14717</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -12647,24 +13247,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
         <v>1988</v>
       </c>
-      <c r="AJ100">
-        <v>0</v>
-      </c>
       <c r="AK100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL100">
         <v>1</v>
       </c>
       <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
         <v>4800.5</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -12763,24 +13369,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
         <v>1988</v>
       </c>
-      <c r="AJ101">
-        <v>0</v>
-      </c>
       <c r="AK101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL101">
         <v>1</v>
       </c>
       <c r="AM101">
+        <v>0</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
         <v>654.5</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -12879,24 +13491,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
         <v>1988</v>
       </c>
-      <c r="AJ102">
-        <v>0</v>
-      </c>
       <c r="AK102">
         <v>0</v>
       </c>
       <c r="AL102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
         <v>11597.5</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -12995,24 +13613,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
         <v>1988</v>
       </c>
-      <c r="AJ103">
-        <v>0</v>
-      </c>
       <c r="AK103">
         <v>0</v>
       </c>
       <c r="AL103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
         <v>64233.5</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -13111,24 +13735,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
         <v>1988</v>
       </c>
-      <c r="AJ104">
-        <v>0</v>
-      </c>
       <c r="AK104">
         <v>0</v>
       </c>
       <c r="AL104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
         <v>56689.5</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -13227,24 +13857,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AJ105">
         <v>1988</v>
       </c>
-      <c r="AJ105">
-        <v>0</v>
-      </c>
       <c r="AK105">
         <v>0</v>
       </c>
       <c r="AL105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM105">
+        <v>0</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
         <v>11449.5</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -13343,24 +13979,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106">
         <v>1988</v>
       </c>
-      <c r="AJ106">
-        <v>0</v>
-      </c>
       <c r="AK106">
         <v>0</v>
       </c>
       <c r="AL106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
         <v>5400</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -13459,24 +14101,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
         <v>1988</v>
       </c>
-      <c r="AJ107">
-        <v>0</v>
-      </c>
       <c r="AK107">
         <v>0</v>
       </c>
       <c r="AL107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+      <c r="AO107">
         <v>111362</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -13575,24 +14223,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
         <v>1988</v>
       </c>
-      <c r="AJ108">
-        <v>0</v>
-      </c>
       <c r="AK108">
         <v>0</v>
       </c>
       <c r="AL108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
         <v>59901</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -13691,24 +14345,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
         <v>1988</v>
       </c>
-      <c r="AJ109">
-        <v>0</v>
-      </c>
       <c r="AK109">
         <v>0</v>
       </c>
       <c r="AL109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AN109">
+        <v>1</v>
+      </c>
+      <c r="AO109">
         <v>22611.5</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -13807,24 +14467,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
         <v>1988</v>
       </c>
-      <c r="AJ110">
-        <v>0</v>
-      </c>
       <c r="AK110">
         <v>0</v>
       </c>
       <c r="AL110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
         <v>56850</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -13923,24 +14589,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
         <v>1988</v>
       </c>
-      <c r="AJ111">
-        <v>0</v>
-      </c>
       <c r="AK111">
         <v>0</v>
       </c>
       <c r="AL111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM111">
+        <v>0</v>
+      </c>
+      <c r="AN111">
+        <v>1</v>
+      </c>
+      <c r="AO111">
         <v>42847</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -14039,24 +14711,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112">
         <v>1988</v>
       </c>
-      <c r="AJ112">
-        <v>0</v>
-      </c>
       <c r="AK112">
         <v>0</v>
       </c>
       <c r="AL112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM112">
+        <v>0</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
         <v>3216.5</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -14155,24 +14833,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113">
         <v>1988</v>
       </c>
-      <c r="AJ113">
-        <v>0</v>
-      </c>
       <c r="AK113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL113">
         <v>1</v>
       </c>
       <c r="AM113">
+        <v>0</v>
+      </c>
+      <c r="AN113">
+        <v>1</v>
+      </c>
+      <c r="AO113">
         <v>29787</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -14271,24 +14955,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AJ114">
         <v>1988</v>
       </c>
-      <c r="AJ114">
-        <v>0</v>
-      </c>
       <c r="AK114">
         <v>0</v>
       </c>
       <c r="AL114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AN114">
+        <v>1</v>
+      </c>
+      <c r="AO114">
         <v>8486.5</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -14387,24 +15077,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AJ115">
         <v>1988</v>
       </c>
-      <c r="AJ115">
-        <v>0</v>
-      </c>
       <c r="AK115">
         <v>0</v>
       </c>
       <c r="AL115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>1</v>
+      </c>
+      <c r="AO115">
         <v>21993.5</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -14503,24 +15199,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AJ116">
         <v>1988</v>
       </c>
-      <c r="AJ116">
-        <v>0</v>
-      </c>
       <c r="AK116">
         <v>0</v>
       </c>
       <c r="AL116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>1</v>
+      </c>
+      <c r="AO116">
         <v>108077.5</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -14619,24 +15321,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI117">
+        <v>0</v>
+      </c>
+      <c r="AJ117">
         <v>1988</v>
       </c>
-      <c r="AJ117">
-        <v>0</v>
-      </c>
       <c r="AK117">
         <v>0</v>
       </c>
       <c r="AL117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>1</v>
+      </c>
+      <c r="AO117">
         <v>300.5</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -14735,24 +15443,30 @@
         <v>0.8899186146988246</v>
       </c>
       <c r="AI118">
+        <v>0</v>
+      </c>
+      <c r="AJ118">
         <v>1988</v>
       </c>
-      <c r="AJ118">
-        <v>0</v>
-      </c>
       <c r="AK118">
         <v>0</v>
       </c>
       <c r="AL118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>1</v>
+      </c>
+      <c r="AO118">
         <v>4752</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -14809,7 +15523,7 @@
         <v>0</v>
       </c>
       <c r="T119">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U119">
         <v>8</v>
@@ -14845,30 +15559,36 @@
         <v>0</v>
       </c>
       <c r="AG119">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH119">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI119">
+        <v>0</v>
+      </c>
+      <c r="AJ119">
         <v>1988</v>
       </c>
-      <c r="AJ119">
-        <v>0</v>
-      </c>
       <c r="AK119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL119">
         <v>1</v>
       </c>
       <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>1</v>
+      </c>
+      <c r="AO119">
         <v>44500</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -14925,7 +15645,7 @@
         <v>0</v>
       </c>
       <c r="T120">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U120">
         <v>8</v>
@@ -14961,30 +15681,36 @@
         <v>0</v>
       </c>
       <c r="AG120">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH120">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
         <v>1988</v>
       </c>
-      <c r="AJ120">
-        <v>0</v>
-      </c>
       <c r="AK120">
         <v>0</v>
       </c>
       <c r="AL120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
         <v>189070.5</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -15041,7 +15767,7 @@
         <v>0</v>
       </c>
       <c r="T121">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U121">
         <v>8</v>
@@ -15077,30 +15803,36 @@
         <v>0</v>
       </c>
       <c r="AG121">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH121">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121">
         <v>1988</v>
       </c>
-      <c r="AJ121">
-        <v>0</v>
-      </c>
       <c r="AK121">
         <v>0</v>
       </c>
       <c r="AL121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
         <v>185529</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -15157,7 +15889,7 @@
         <v>0</v>
       </c>
       <c r="T122">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U122">
         <v>8</v>
@@ -15193,30 +15925,36 @@
         <v>0</v>
       </c>
       <c r="AG122">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH122">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
         <v>1988</v>
       </c>
-      <c r="AJ122">
-        <v>0</v>
-      </c>
       <c r="AK122">
         <v>0</v>
       </c>
       <c r="AL122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>1</v>
+      </c>
+      <c r="AO122">
         <v>34878.5</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -15273,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="T123">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U123">
         <v>8</v>
@@ -15309,30 +16047,36 @@
         <v>0</v>
       </c>
       <c r="AG123">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH123">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
         <v>1988</v>
       </c>
-      <c r="AJ123">
-        <v>0</v>
-      </c>
       <c r="AK123">
         <v>0</v>
       </c>
       <c r="AL123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>1</v>
+      </c>
+      <c r="AO123">
         <v>7002.5</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -15389,7 +16133,7 @@
         <v>0</v>
       </c>
       <c r="T124">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U124">
         <v>8</v>
@@ -15425,36 +16169,42 @@
         <v>0</v>
       </c>
       <c r="AG124">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH124">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
         <v>1988</v>
       </c>
-      <c r="AJ124">
-        <v>0</v>
-      </c>
       <c r="AK124">
         <v>0</v>
       </c>
       <c r="AL124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM124">
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <v>1</v>
+      </c>
+      <c r="AO124">
         <v>46471</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -15505,7 +16255,7 @@
         <v>0</v>
       </c>
       <c r="T125">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U125">
         <v>8</v>
@@ -15541,30 +16291,36 @@
         <v>0</v>
       </c>
       <c r="AG125">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH125">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI125">
+        <v>0</v>
+      </c>
+      <c r="AJ125">
         <v>1988</v>
       </c>
-      <c r="AJ125">
-        <v>0</v>
-      </c>
       <c r="AK125">
         <v>0</v>
       </c>
       <c r="AL125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>1</v>
+      </c>
+      <c r="AO125">
         <v>14037.5</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -15621,7 +16377,7 @@
         <v>0</v>
       </c>
       <c r="T126">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U126">
         <v>8</v>
@@ -15657,30 +16413,36 @@
         <v>7960000</v>
       </c>
       <c r="AG126">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH126">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
         <v>1988</v>
       </c>
-      <c r="AJ126">
-        <v>0</v>
-      </c>
       <c r="AK126">
         <v>0</v>
       </c>
       <c r="AL126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>1</v>
+      </c>
+      <c r="AO126">
         <v>21041.5</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -15737,7 +16499,7 @@
         <v>0</v>
       </c>
       <c r="T127">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U127">
         <v>8</v>
@@ -15773,30 +16535,36 @@
         <v>6909225</v>
       </c>
       <c r="AG127">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH127">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
         <v>1988</v>
       </c>
-      <c r="AJ127">
-        <v>0</v>
-      </c>
       <c r="AK127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL127">
         <v>1</v>
       </c>
       <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>1</v>
+      </c>
+      <c r="AO127">
         <v>47623</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -15853,7 +16621,7 @@
         <v>0</v>
       </c>
       <c r="T128">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U128">
         <v>8</v>
@@ -15889,30 +16657,36 @@
         <v>0</v>
       </c>
       <c r="AG128">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH128">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
         <v>1988</v>
       </c>
-      <c r="AJ128">
-        <v>0</v>
-      </c>
       <c r="AK128">
         <v>0</v>
       </c>
       <c r="AL128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
         <v>21743.5</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -15969,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="T129">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U129">
         <v>8</v>
@@ -16005,30 +16779,36 @@
         <v>2500000</v>
       </c>
       <c r="AG129">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH129">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129">
         <v>1988</v>
       </c>
-      <c r="AJ129">
-        <v>0</v>
-      </c>
       <c r="AK129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL129">
         <v>1</v>
       </c>
       <c r="AM129">
+        <v>0</v>
+      </c>
+      <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
         <v>13000.5</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -16085,7 +16865,7 @@
         <v>0</v>
       </c>
       <c r="T130">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U130">
         <v>8</v>
@@ -16121,30 +16901,36 @@
         <v>5000000</v>
       </c>
       <c r="AG130">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH130">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI130">
+        <v>0</v>
+      </c>
+      <c r="AJ130">
         <v>1988</v>
       </c>
-      <c r="AJ130">
-        <v>0</v>
-      </c>
       <c r="AK130">
         <v>0</v>
       </c>
       <c r="AL130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>1</v>
+      </c>
+      <c r="AO130">
         <v>28710</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -16201,7 +16987,7 @@
         <v>0</v>
       </c>
       <c r="T131">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U131">
         <v>8</v>
@@ -16237,30 +17023,36 @@
         <v>0</v>
       </c>
       <c r="AG131">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH131">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
         <v>1988</v>
       </c>
-      <c r="AJ131">
-        <v>0</v>
-      </c>
       <c r="AK131">
         <v>0</v>
       </c>
       <c r="AL131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>1</v>
+      </c>
+      <c r="AO131">
         <v>5150</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -16317,7 +17109,7 @@
         <v>0</v>
       </c>
       <c r="T132">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U132">
         <v>8</v>
@@ -16353,30 +17145,36 @@
         <v>0</v>
       </c>
       <c r="AG132">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH132">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI132">
+        <v>0</v>
+      </c>
+      <c r="AJ132">
         <v>1988</v>
       </c>
-      <c r="AJ132">
-        <v>0</v>
-      </c>
       <c r="AK132">
         <v>0</v>
       </c>
       <c r="AL132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>1</v>
+      </c>
+      <c r="AO132">
         <v>40888.5</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -16433,7 +17231,7 @@
         <v>0</v>
       </c>
       <c r="T133">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U133">
         <v>8</v>
@@ -16469,30 +17267,36 @@
         <v>0</v>
       </c>
       <c r="AG133">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH133">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
         <v>1988</v>
       </c>
-      <c r="AJ133">
-        <v>0</v>
-      </c>
       <c r="AK133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL133">
         <v>1</v>
       </c>
       <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
         <v>1097.5</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -16549,7 +17353,7 @@
         <v>0</v>
       </c>
       <c r="T134">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U134">
         <v>8</v>
@@ -16585,30 +17389,36 @@
         <v>8486450</v>
       </c>
       <c r="AG134">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH134">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI134">
+        <v>0</v>
+      </c>
+      <c r="AJ134">
         <v>1988</v>
       </c>
-      <c r="AJ134">
-        <v>0</v>
-      </c>
       <c r="AK134">
         <v>0</v>
       </c>
       <c r="AL134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM134">
+        <v>0</v>
+      </c>
+      <c r="AN134">
+        <v>1</v>
+      </c>
+      <c r="AO134">
         <v>96089.5</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -16665,7 +17475,7 @@
         <v>0</v>
       </c>
       <c r="T135">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U135">
         <v>8</v>
@@ -16701,30 +17511,36 @@
         <v>8243214</v>
       </c>
       <c r="AG135">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH135">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI135">
+        <v>0</v>
+      </c>
+      <c r="AJ135">
         <v>1988</v>
       </c>
-      <c r="AJ135">
-        <v>0</v>
-      </c>
       <c r="AK135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL135">
         <v>1</v>
       </c>
       <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>1</v>
+      </c>
+      <c r="AO135">
         <v>625</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -16781,7 +17597,7 @@
         <v>0</v>
       </c>
       <c r="T136">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U136">
         <v>8</v>
@@ -16817,30 +17633,36 @@
         <v>5885000</v>
       </c>
       <c r="AG136">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH136">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI136">
+        <v>0</v>
+      </c>
+      <c r="AJ136">
         <v>1988</v>
       </c>
-      <c r="AJ136">
-        <v>0</v>
-      </c>
       <c r="AK136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL136">
         <v>1</v>
       </c>
       <c r="AM136">
+        <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>1</v>
+      </c>
+      <c r="AO136">
         <v>18839.5</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -16897,7 +17719,7 @@
         <v>0</v>
       </c>
       <c r="T137">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U137">
         <v>8</v>
@@ -16933,30 +17755,36 @@
         <v>6615978</v>
       </c>
       <c r="AG137">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH137">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
         <v>1988</v>
       </c>
-      <c r="AJ137">
-        <v>0</v>
-      </c>
       <c r="AK137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL137">
         <v>1</v>
       </c>
       <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>1</v>
+      </c>
+      <c r="AO137">
         <v>6339</v>
       </c>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="1:41">
       <c r="A138" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -17013,7 +17841,7 @@
         <v>0</v>
       </c>
       <c r="T138">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U138">
         <v>8</v>
@@ -17049,30 +17877,36 @@
         <v>0</v>
       </c>
       <c r="AG138">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH138">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI138">
+        <v>0</v>
+      </c>
+      <c r="AJ138">
         <v>1988</v>
       </c>
-      <c r="AJ138">
-        <v>0</v>
-      </c>
       <c r="AK138">
         <v>0</v>
       </c>
       <c r="AL138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>1</v>
+      </c>
+      <c r="AO138">
         <v>1570</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:41">
       <c r="A139" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -17129,7 +17963,7 @@
         <v>0</v>
       </c>
       <c r="T139">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U139">
         <v>8</v>
@@ -17165,30 +17999,36 @@
         <v>0</v>
       </c>
       <c r="AG139">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH139">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI139">
+        <v>0</v>
+      </c>
+      <c r="AJ139">
         <v>1988</v>
       </c>
-      <c r="AJ139">
-        <v>0</v>
-      </c>
       <c r="AK139">
         <v>0</v>
       </c>
       <c r="AL139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>1</v>
+      </c>
+      <c r="AO139">
         <v>23272</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:41">
       <c r="A140" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -17245,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="T140">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U140">
         <v>8</v>
@@ -17281,30 +18121,36 @@
         <v>0</v>
       </c>
       <c r="AG140">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH140">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI140">
+        <v>0</v>
+      </c>
+      <c r="AJ140">
         <v>1988</v>
       </c>
-      <c r="AJ140">
-        <v>0</v>
-      </c>
       <c r="AK140">
         <v>0</v>
       </c>
       <c r="AL140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM140">
+        <v>0</v>
+      </c>
+      <c r="AN140">
+        <v>1</v>
+      </c>
+      <c r="AO140">
         <v>15000</v>
       </c>
     </row>
-    <row r="141" spans="1:39">
+    <row r="141" spans="1:41">
       <c r="A141" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -17361,7 +18207,7 @@
         <v>0</v>
       </c>
       <c r="T141">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U141">
         <v>8</v>
@@ -17397,30 +18243,36 @@
         <v>0</v>
       </c>
       <c r="AG141">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH141">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
         <v>1988</v>
       </c>
-      <c r="AJ141">
-        <v>0</v>
-      </c>
       <c r="AK141">
         <v>0</v>
       </c>
       <c r="AL141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>1</v>
+      </c>
+      <c r="AO141">
         <v>9700</v>
       </c>
     </row>
-    <row r="142" spans="1:39">
+    <row r="142" spans="1:41">
       <c r="A142" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -17477,7 +18329,7 @@
         <v>0</v>
       </c>
       <c r="T142">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U142">
         <v>8</v>
@@ -17513,30 +18365,36 @@
         <v>0</v>
       </c>
       <c r="AG142">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH142">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI142">
+        <v>0</v>
+      </c>
+      <c r="AJ142">
         <v>1988</v>
       </c>
-      <c r="AJ142">
-        <v>0</v>
-      </c>
       <c r="AK142">
         <v>0</v>
       </c>
       <c r="AL142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM142">
+        <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>1</v>
+      </c>
+      <c r="AO142">
         <v>87062</v>
       </c>
     </row>
-    <row r="143" spans="1:39">
+    <row r="143" spans="1:41">
       <c r="A143" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -17593,7 +18451,7 @@
         <v>0</v>
       </c>
       <c r="T143">
-        <v>1794737</v>
+        <v>1868513</v>
       </c>
       <c r="U143">
         <v>8</v>
@@ -17629,30 +18487,36 @@
         <v>0</v>
       </c>
       <c r="AG143">
-        <v>1981599</v>
+        <v>2055375</v>
       </c>
       <c r="AH143">
-        <v>0.9057014057839149</v>
+        <v>0.9090861764884753</v>
       </c>
       <c r="AI143">
+        <v>0</v>
+      </c>
+      <c r="AJ143">
         <v>1988</v>
       </c>
-      <c r="AJ143">
-        <v>0</v>
-      </c>
       <c r="AK143">
         <v>0</v>
       </c>
       <c r="AL143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM143">
+        <v>0</v>
+      </c>
+      <c r="AN143">
+        <v>1</v>
+      </c>
+      <c r="AO143">
         <v>27232</v>
       </c>
     </row>
-    <row r="144" spans="1:39">
+    <row r="144" spans="1:41">
       <c r="A144" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -17751,24 +18615,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI144">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ144">
         <v>1988</v>
       </c>
-      <c r="AJ144">
-        <v>0</v>
-      </c>
       <c r="AK144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL144">
         <v>1</v>
       </c>
       <c r="AM144">
+        <v>0</v>
+      </c>
+      <c r="AN144">
+        <v>1</v>
+      </c>
+      <c r="AO144">
         <v>44500</v>
       </c>
     </row>
-    <row r="145" spans="1:39">
+    <row r="145" spans="1:41">
       <c r="A145" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -17867,24 +18737,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI145">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ145">
         <v>1988</v>
       </c>
-      <c r="AJ145">
-        <v>0</v>
-      </c>
       <c r="AK145">
         <v>0</v>
       </c>
       <c r="AL145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM145">
+        <v>0</v>
+      </c>
+      <c r="AN145">
+        <v>1</v>
+      </c>
+      <c r="AO145">
         <v>189070.5</v>
       </c>
     </row>
-    <row r="146" spans="1:39">
+    <row r="146" spans="1:41">
       <c r="A146" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -17983,24 +18859,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI146">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ146">
         <v>1988</v>
       </c>
-      <c r="AJ146">
-        <v>0</v>
-      </c>
       <c r="AK146">
         <v>0</v>
       </c>
       <c r="AL146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM146">
+        <v>0</v>
+      </c>
+      <c r="AN146">
+        <v>1</v>
+      </c>
+      <c r="AO146">
         <v>185529</v>
       </c>
     </row>
-    <row r="147" spans="1:39">
+    <row r="147" spans="1:41">
       <c r="A147" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -18099,24 +18981,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI147">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ147">
         <v>1988</v>
       </c>
-      <c r="AJ147">
-        <v>0</v>
-      </c>
       <c r="AK147">
         <v>0</v>
       </c>
       <c r="AL147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM147">
+        <v>0</v>
+      </c>
+      <c r="AN147">
+        <v>1</v>
+      </c>
+      <c r="AO147">
         <v>34878.5</v>
       </c>
     </row>
-    <row r="148" spans="1:39">
+    <row r="148" spans="1:41">
       <c r="A148" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -18215,24 +19103,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI148">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ148">
         <v>1988</v>
       </c>
-      <c r="AJ148">
-        <v>0</v>
-      </c>
       <c r="AK148">
         <v>0</v>
       </c>
       <c r="AL148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM148">
+        <v>0</v>
+      </c>
+      <c r="AN148">
+        <v>1</v>
+      </c>
+      <c r="AO148">
         <v>7002.5</v>
       </c>
     </row>
-    <row r="149" spans="1:39">
+    <row r="149" spans="1:41">
       <c r="A149" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -18331,30 +19225,36 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI149">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ149">
         <v>1988</v>
       </c>
-      <c r="AJ149">
-        <v>0</v>
-      </c>
       <c r="AK149">
         <v>0</v>
       </c>
       <c r="AL149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM149">
+        <v>0</v>
+      </c>
+      <c r="AN149">
+        <v>1</v>
+      </c>
+      <c r="AO149">
         <v>46471</v>
       </c>
     </row>
-    <row r="150" spans="1:39">
+    <row r="150" spans="1:41">
       <c r="A150" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -18447,24 +19347,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI150">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ150">
         <v>1988</v>
       </c>
-      <c r="AJ150">
-        <v>0</v>
-      </c>
       <c r="AK150">
         <v>0</v>
       </c>
       <c r="AL150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>1</v>
+      </c>
+      <c r="AO150">
         <v>14037.5</v>
       </c>
     </row>
-    <row r="151" spans="1:39">
+    <row r="151" spans="1:41">
       <c r="A151" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -18563,24 +19469,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI151">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ151">
         <v>1988</v>
       </c>
-      <c r="AJ151">
-        <v>0</v>
-      </c>
       <c r="AK151">
         <v>0</v>
       </c>
       <c r="AL151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM151">
+        <v>0</v>
+      </c>
+      <c r="AN151">
+        <v>1</v>
+      </c>
+      <c r="AO151">
         <v>21041.5</v>
       </c>
     </row>
-    <row r="152" spans="1:39">
+    <row r="152" spans="1:41">
       <c r="A152" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -18679,24 +19591,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI152">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ152">
         <v>1988</v>
       </c>
-      <c r="AJ152">
-        <v>0</v>
-      </c>
       <c r="AK152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL152">
         <v>1</v>
       </c>
       <c r="AM152">
+        <v>0</v>
+      </c>
+      <c r="AN152">
+        <v>1</v>
+      </c>
+      <c r="AO152">
         <v>47623</v>
       </c>
     </row>
-    <row r="153" spans="1:39">
+    <row r="153" spans="1:41">
       <c r="A153" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -18795,24 +19713,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI153">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ153">
         <v>1988</v>
       </c>
-      <c r="AJ153">
-        <v>0</v>
-      </c>
       <c r="AK153">
         <v>0</v>
       </c>
       <c r="AL153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM153">
+        <v>0</v>
+      </c>
+      <c r="AN153">
+        <v>1</v>
+      </c>
+      <c r="AO153">
         <v>21743.5</v>
       </c>
     </row>
-    <row r="154" spans="1:39">
+    <row r="154" spans="1:41">
       <c r="A154" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -18911,24 +19835,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI154">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ154">
         <v>1988</v>
       </c>
-      <c r="AJ154">
-        <v>0</v>
-      </c>
       <c r="AK154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL154">
         <v>1</v>
       </c>
       <c r="AM154">
+        <v>0</v>
+      </c>
+      <c r="AN154">
+        <v>1</v>
+      </c>
+      <c r="AO154">
         <v>13000.5</v>
       </c>
     </row>
-    <row r="155" spans="1:39">
+    <row r="155" spans="1:41">
       <c r="A155" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -19027,24 +19957,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI155">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ155">
         <v>1988</v>
       </c>
-      <c r="AJ155">
-        <v>0</v>
-      </c>
       <c r="AK155">
         <v>0</v>
       </c>
       <c r="AL155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM155">
+        <v>0</v>
+      </c>
+      <c r="AN155">
+        <v>1</v>
+      </c>
+      <c r="AO155">
         <v>28710</v>
       </c>
     </row>
-    <row r="156" spans="1:39">
+    <row r="156" spans="1:41">
       <c r="A156" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -19143,24 +20079,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI156">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ156">
         <v>1988</v>
       </c>
-      <c r="AJ156">
-        <v>0</v>
-      </c>
       <c r="AK156">
         <v>0</v>
       </c>
       <c r="AL156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM156">
+        <v>0</v>
+      </c>
+      <c r="AN156">
+        <v>1</v>
+      </c>
+      <c r="AO156">
         <v>5150</v>
       </c>
     </row>
-    <row r="157" spans="1:39">
+    <row r="157" spans="1:41">
       <c r="A157" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -19259,24 +20201,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI157">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ157">
         <v>1988</v>
       </c>
-      <c r="AJ157">
-        <v>0</v>
-      </c>
       <c r="AK157">
         <v>0</v>
       </c>
       <c r="AL157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM157">
+        <v>0</v>
+      </c>
+      <c r="AN157">
+        <v>1</v>
+      </c>
+      <c r="AO157">
         <v>40888.5</v>
       </c>
     </row>
-    <row r="158" spans="1:39">
+    <row r="158" spans="1:41">
       <c r="A158" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -19375,24 +20323,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI158">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ158">
         <v>1988</v>
       </c>
-      <c r="AJ158">
-        <v>0</v>
-      </c>
       <c r="AK158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL158">
         <v>1</v>
       </c>
       <c r="AM158">
+        <v>0</v>
+      </c>
+      <c r="AN158">
+        <v>1</v>
+      </c>
+      <c r="AO158">
         <v>1097.5</v>
       </c>
     </row>
-    <row r="159" spans="1:39">
+    <row r="159" spans="1:41">
       <c r="A159" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -19491,24 +20445,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI159">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ159">
         <v>1988</v>
       </c>
-      <c r="AJ159">
-        <v>0</v>
-      </c>
       <c r="AK159">
         <v>0</v>
       </c>
       <c r="AL159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM159">
+        <v>0</v>
+      </c>
+      <c r="AN159">
+        <v>1</v>
+      </c>
+      <c r="AO159">
         <v>96089.5</v>
       </c>
     </row>
-    <row r="160" spans="1:39">
+    <row r="160" spans="1:41">
       <c r="A160" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -19607,24 +20567,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI160">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ160">
         <v>1988</v>
       </c>
-      <c r="AJ160">
-        <v>0</v>
-      </c>
       <c r="AK160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL160">
         <v>1</v>
       </c>
       <c r="AM160">
+        <v>0</v>
+      </c>
+      <c r="AN160">
+        <v>1</v>
+      </c>
+      <c r="AO160">
         <v>625</v>
       </c>
     </row>
-    <row r="161" spans="1:39">
+    <row r="161" spans="1:41">
       <c r="A161" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -19723,24 +20689,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI161">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ161">
         <v>1988</v>
       </c>
-      <c r="AJ161">
-        <v>0</v>
-      </c>
       <c r="AK161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL161">
         <v>1</v>
       </c>
       <c r="AM161">
+        <v>0</v>
+      </c>
+      <c r="AN161">
+        <v>1</v>
+      </c>
+      <c r="AO161">
         <v>18839.5</v>
       </c>
     </row>
-    <row r="162" spans="1:39">
+    <row r="162" spans="1:41">
       <c r="A162" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -19839,24 +20811,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI162">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ162">
         <v>1988</v>
       </c>
-      <c r="AJ162">
-        <v>0</v>
-      </c>
       <c r="AK162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL162">
         <v>1</v>
       </c>
       <c r="AM162">
+        <v>0</v>
+      </c>
+      <c r="AN162">
+        <v>1</v>
+      </c>
+      <c r="AO162">
         <v>6339</v>
       </c>
     </row>
-    <row r="163" spans="1:39">
+    <row r="163" spans="1:41">
       <c r="A163" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -19955,24 +20933,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI163">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ163">
         <v>1988</v>
       </c>
-      <c r="AJ163">
-        <v>0</v>
-      </c>
       <c r="AK163">
         <v>0</v>
       </c>
       <c r="AL163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM163">
+        <v>0</v>
+      </c>
+      <c r="AN163">
+        <v>1</v>
+      </c>
+      <c r="AO163">
         <v>1570</v>
       </c>
     </row>
-    <row r="164" spans="1:39">
+    <row r="164" spans="1:41">
       <c r="A164" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -20071,24 +21055,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI164">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ164">
         <v>1988</v>
       </c>
-      <c r="AJ164">
-        <v>0</v>
-      </c>
       <c r="AK164">
         <v>0</v>
       </c>
       <c r="AL164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM164">
+        <v>0</v>
+      </c>
+      <c r="AN164">
+        <v>1</v>
+      </c>
+      <c r="AO164">
         <v>23272</v>
       </c>
     </row>
-    <row r="165" spans="1:39">
+    <row r="165" spans="1:41">
       <c r="A165" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -20187,24 +21177,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI165">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ165">
         <v>1988</v>
       </c>
-      <c r="AJ165">
-        <v>0</v>
-      </c>
       <c r="AK165">
         <v>0</v>
       </c>
       <c r="AL165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM165">
+        <v>0</v>
+      </c>
+      <c r="AN165">
+        <v>1</v>
+      </c>
+      <c r="AO165">
         <v>15000</v>
       </c>
     </row>
-    <row r="166" spans="1:39">
+    <row r="166" spans="1:41">
       <c r="A166" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -20303,24 +21299,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI166">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ166">
         <v>1988</v>
       </c>
-      <c r="AJ166">
-        <v>0</v>
-      </c>
       <c r="AK166">
         <v>0</v>
       </c>
       <c r="AL166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM166">
+        <v>0</v>
+      </c>
+      <c r="AN166">
+        <v>1</v>
+      </c>
+      <c r="AO166">
         <v>9700</v>
       </c>
     </row>
-    <row r="167" spans="1:39">
+    <row r="167" spans="1:41">
       <c r="A167" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -20419,24 +21421,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI167">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ167">
         <v>1988</v>
       </c>
-      <c r="AJ167">
-        <v>0</v>
-      </c>
       <c r="AK167">
         <v>0</v>
       </c>
       <c r="AL167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM167">
+        <v>0</v>
+      </c>
+      <c r="AN167">
+        <v>1</v>
+      </c>
+      <c r="AO167">
         <v>87062</v>
       </c>
     </row>
-    <row r="168" spans="1:39">
+    <row r="168" spans="1:41">
       <c r="A168" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -20535,24 +21543,30 @@
         <v>0.8704591746223074</v>
       </c>
       <c r="AI168">
+        <v>0.004044505530557541</v>
+      </c>
+      <c r="AJ168">
         <v>1988</v>
       </c>
-      <c r="AJ168">
-        <v>0</v>
-      </c>
       <c r="AK168">
         <v>0</v>
       </c>
       <c r="AL168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM168">
+        <v>0</v>
+      </c>
+      <c r="AN168">
+        <v>1</v>
+      </c>
+      <c r="AO168">
         <v>27232</v>
       </c>
     </row>
-    <row r="169" spans="1:39">
+    <row r="169" spans="1:41">
       <c r="A169" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -20651,24 +21665,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI169">
+        <v>0</v>
+      </c>
+      <c r="AJ169">
         <v>1988</v>
       </c>
-      <c r="AJ169">
-        <v>0</v>
-      </c>
       <c r="AK169">
         <v>0</v>
       </c>
       <c r="AL169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM169">
+        <v>0</v>
+      </c>
+      <c r="AN169">
+        <v>1</v>
+      </c>
+      <c r="AO169">
         <v>557301</v>
       </c>
     </row>
-    <row r="170" spans="1:39">
+    <row r="170" spans="1:41">
       <c r="A170" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -20767,24 +21787,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI170">
+        <v>0</v>
+      </c>
+      <c r="AJ170">
         <v>1988</v>
       </c>
-      <c r="AJ170">
-        <v>0</v>
-      </c>
       <c r="AK170">
         <v>0</v>
       </c>
       <c r="AL170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM170">
+        <v>0</v>
+      </c>
+      <c r="AN170">
+        <v>1</v>
+      </c>
+      <c r="AO170">
         <v>37744</v>
       </c>
     </row>
-    <row r="171" spans="1:39">
+    <row r="171" spans="1:41">
       <c r="A171" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -20883,24 +21909,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI171">
+        <v>0</v>
+      </c>
+      <c r="AJ171">
         <v>1988</v>
       </c>
-      <c r="AJ171">
-        <v>0</v>
-      </c>
       <c r="AK171">
         <v>0</v>
       </c>
       <c r="AL171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM171">
+        <v>0</v>
+      </c>
+      <c r="AN171">
+        <v>1</v>
+      </c>
+      <c r="AO171">
         <v>22530</v>
       </c>
     </row>
-    <row r="172" spans="1:39">
+    <row r="172" spans="1:41">
       <c r="A172" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -20999,30 +22031,36 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI172">
+        <v>0</v>
+      </c>
+      <c r="AJ172">
         <v>1988</v>
       </c>
-      <c r="AJ172">
-        <v>0</v>
-      </c>
       <c r="AK172">
         <v>0</v>
       </c>
       <c r="AL172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM172">
+        <v>0</v>
+      </c>
+      <c r="AN172">
+        <v>1</v>
+      </c>
+      <c r="AO172">
         <v>80837</v>
       </c>
     </row>
-    <row r="173" spans="1:39">
+    <row r="173" spans="1:41">
       <c r="A173" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -21115,24 +22153,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI173">
+        <v>0</v>
+      </c>
+      <c r="AJ173">
         <v>1988</v>
       </c>
-      <c r="AJ173">
-        <v>0</v>
-      </c>
       <c r="AK173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL173">
         <v>1</v>
       </c>
       <c r="AM173">
+        <v>0</v>
+      </c>
+      <c r="AN173">
+        <v>1</v>
+      </c>
+      <c r="AO173">
         <v>7803</v>
       </c>
     </row>
-    <row r="174" spans="1:39">
+    <row r="174" spans="1:41">
       <c r="A174" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -21231,24 +22275,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI174">
+        <v>0</v>
+      </c>
+      <c r="AJ174">
         <v>1988</v>
       </c>
-      <c r="AJ174">
-        <v>0</v>
-      </c>
       <c r="AK174">
         <v>0</v>
       </c>
       <c r="AL174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM174">
+        <v>0</v>
+      </c>
+      <c r="AN174">
+        <v>1</v>
+      </c>
+      <c r="AO174">
         <v>15756</v>
       </c>
     </row>
-    <row r="175" spans="1:39">
+    <row r="175" spans="1:41">
       <c r="A175" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -21347,24 +22397,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI175">
+        <v>0</v>
+      </c>
+      <c r="AJ175">
         <v>1988</v>
       </c>
-      <c r="AJ175">
-        <v>0</v>
-      </c>
       <c r="AK175">
         <v>0</v>
       </c>
       <c r="AL175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM175">
+        <v>0</v>
+      </c>
+      <c r="AN175">
+        <v>1</v>
+      </c>
+      <c r="AO175">
         <v>83507</v>
       </c>
     </row>
-    <row r="176" spans="1:39">
+    <row r="176" spans="1:41">
       <c r="A176" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -21463,24 +22519,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI176">
+        <v>0</v>
+      </c>
+      <c r="AJ176">
         <v>1988</v>
       </c>
-      <c r="AJ176">
-        <v>0</v>
-      </c>
       <c r="AK176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL176">
         <v>1</v>
       </c>
       <c r="AM176">
+        <v>0</v>
+      </c>
+      <c r="AN176">
+        <v>1</v>
+      </c>
+      <c r="AO176">
         <v>204578</v>
       </c>
     </row>
-    <row r="177" spans="1:39">
+    <row r="177" spans="1:41">
       <c r="A177" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -21579,24 +22641,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI177">
+        <v>0</v>
+      </c>
+      <c r="AJ177">
         <v>1988</v>
       </c>
-      <c r="AJ177">
-        <v>0</v>
-      </c>
       <c r="AK177">
         <v>0</v>
       </c>
       <c r="AL177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM177">
+        <v>0</v>
+      </c>
+      <c r="AN177">
+        <v>1</v>
+      </c>
+      <c r="AO177">
         <v>1000</v>
       </c>
     </row>
-    <row r="178" spans="1:39">
+    <row r="178" spans="1:41">
       <c r="A178" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -21695,24 +22763,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI178">
+        <v>0</v>
+      </c>
+      <c r="AJ178">
         <v>1988</v>
       </c>
-      <c r="AJ178">
-        <v>0</v>
-      </c>
       <c r="AK178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL178">
         <v>1</v>
       </c>
       <c r="AM178">
+        <v>0</v>
+      </c>
+      <c r="AN178">
+        <v>1</v>
+      </c>
+      <c r="AO178">
         <v>6000</v>
       </c>
     </row>
-    <row r="179" spans="1:39">
+    <row r="179" spans="1:41">
       <c r="A179" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -21811,24 +22885,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI179">
+        <v>0</v>
+      </c>
+      <c r="AJ179">
         <v>1988</v>
       </c>
-      <c r="AJ179">
-        <v>0</v>
-      </c>
       <c r="AK179">
         <v>0</v>
       </c>
       <c r="AL179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM179">
+        <v>0</v>
+      </c>
+      <c r="AN179">
+        <v>1</v>
+      </c>
+      <c r="AO179">
         <v>263492</v>
       </c>
     </row>
-    <row r="180" spans="1:39">
+    <row r="180" spans="1:41">
       <c r="A180" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -21927,24 +23007,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI180">
+        <v>0</v>
+      </c>
+      <c r="AJ180">
         <v>1988</v>
       </c>
-      <c r="AJ180">
-        <v>0</v>
-      </c>
       <c r="AK180">
         <v>0</v>
       </c>
       <c r="AL180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM180">
+        <v>0</v>
+      </c>
+      <c r="AN180">
+        <v>1</v>
+      </c>
+      <c r="AO180">
         <v>79196</v>
       </c>
     </row>
-    <row r="181" spans="1:39">
+    <row r="181" spans="1:41">
       <c r="A181" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -22043,24 +23129,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI181">
+        <v>0</v>
+      </c>
+      <c r="AJ181">
         <v>1988</v>
       </c>
-      <c r="AJ181">
-        <v>0</v>
-      </c>
       <c r="AK181">
         <v>0</v>
       </c>
       <c r="AL181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM181">
+        <v>0</v>
+      </c>
+      <c r="AN181">
+        <v>1</v>
+      </c>
+      <c r="AO181">
         <v>3400</v>
       </c>
     </row>
-    <row r="182" spans="1:39">
+    <row r="182" spans="1:41">
       <c r="A182" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -22159,24 +23251,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI182">
+        <v>0</v>
+      </c>
+      <c r="AJ182">
         <v>1988</v>
       </c>
-      <c r="AJ182">
-        <v>0</v>
-      </c>
       <c r="AK182">
         <v>0</v>
       </c>
       <c r="AL182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM182">
+        <v>0</v>
+      </c>
+      <c r="AN182">
+        <v>1</v>
+      </c>
+      <c r="AO182">
         <v>44819</v>
       </c>
     </row>
-    <row r="183" spans="1:39">
+    <row r="183" spans="1:41">
       <c r="A183" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -22275,24 +23373,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI183">
+        <v>0</v>
+      </c>
+      <c r="AJ183">
         <v>1988</v>
       </c>
-      <c r="AJ183">
-        <v>0</v>
-      </c>
       <c r="AK183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL183">
         <v>1</v>
       </c>
       <c r="AM183">
+        <v>0</v>
+      </c>
+      <c r="AN183">
+        <v>1</v>
+      </c>
+      <c r="AO183">
         <v>2707</v>
       </c>
     </row>
-    <row r="184" spans="1:39">
+    <row r="184" spans="1:41">
       <c r="A184" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -22391,24 +23495,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI184">
+        <v>0</v>
+      </c>
+      <c r="AJ184">
         <v>1988</v>
       </c>
-      <c r="AJ184">
-        <v>0</v>
-      </c>
       <c r="AK184">
         <v>0</v>
       </c>
       <c r="AL184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM184">
+        <v>0</v>
+      </c>
+      <c r="AN184">
+        <v>1</v>
+      </c>
+      <c r="AO184">
         <v>50398</v>
       </c>
     </row>
-    <row r="185" spans="1:39">
+    <row r="185" spans="1:41">
       <c r="A185" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -22507,24 +23617,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI185">
+        <v>0</v>
+      </c>
+      <c r="AJ185">
         <v>1988</v>
       </c>
-      <c r="AJ185">
-        <v>0</v>
-      </c>
       <c r="AK185">
         <v>0</v>
       </c>
       <c r="AL185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM185">
+        <v>0</v>
+      </c>
+      <c r="AN185">
+        <v>1</v>
+      </c>
+      <c r="AO185">
         <v>6200</v>
       </c>
     </row>
-    <row r="186" spans="1:39">
+    <row r="186" spans="1:41">
       <c r="A186" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -22623,24 +23739,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI186">
+        <v>0</v>
+      </c>
+      <c r="AJ186">
         <v>1988</v>
       </c>
-      <c r="AJ186">
-        <v>0</v>
-      </c>
       <c r="AK186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL186">
         <v>1</v>
       </c>
       <c r="AM186">
+        <v>0</v>
+      </c>
+      <c r="AN186">
+        <v>1</v>
+      </c>
+      <c r="AO186">
         <v>221978</v>
       </c>
     </row>
-    <row r="187" spans="1:39">
+    <row r="187" spans="1:41">
       <c r="A187" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -22739,24 +23861,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI187">
+        <v>0</v>
+      </c>
+      <c r="AJ187">
         <v>1988</v>
       </c>
-      <c r="AJ187">
-        <v>0</v>
-      </c>
       <c r="AK187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL187">
         <v>1</v>
       </c>
       <c r="AM187">
+        <v>0</v>
+      </c>
+      <c r="AN187">
+        <v>1</v>
+      </c>
+      <c r="AO187">
         <v>4502</v>
       </c>
     </row>
-    <row r="188" spans="1:39">
+    <row r="188" spans="1:41">
       <c r="A188" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -22855,24 +23983,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI188">
+        <v>0</v>
+      </c>
+      <c r="AJ188">
         <v>1988</v>
       </c>
-      <c r="AJ188">
-        <v>0</v>
-      </c>
       <c r="AK188">
         <v>0</v>
       </c>
       <c r="AL188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM188">
+        <v>0</v>
+      </c>
+      <c r="AN188">
+        <v>1</v>
+      </c>
+      <c r="AO188">
         <v>120943</v>
       </c>
     </row>
-    <row r="189" spans="1:39">
+    <row r="189" spans="1:41">
       <c r="A189" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -22971,24 +24105,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI189">
+        <v>0</v>
+      </c>
+      <c r="AJ189">
         <v>1988</v>
       </c>
-      <c r="AJ189">
-        <v>0</v>
-      </c>
       <c r="AK189">
         <v>0</v>
       </c>
       <c r="AL189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM189">
+        <v>0</v>
+      </c>
+      <c r="AN189">
+        <v>1</v>
+      </c>
+      <c r="AO189">
         <v>29868</v>
       </c>
     </row>
-    <row r="190" spans="1:39">
+    <row r="190" spans="1:41">
       <c r="A190" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -23087,24 +24227,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI190">
+        <v>0</v>
+      </c>
+      <c r="AJ190">
         <v>1988</v>
       </c>
-      <c r="AJ190">
-        <v>0</v>
-      </c>
       <c r="AK190">
         <v>0</v>
       </c>
       <c r="AL190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM190">
+        <v>0</v>
+      </c>
+      <c r="AN190">
+        <v>1</v>
+      </c>
+      <c r="AO190">
         <v>19000</v>
       </c>
     </row>
-    <row r="191" spans="1:39">
+    <row r="191" spans="1:41">
       <c r="A191" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -23203,24 +24349,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI191">
+        <v>0</v>
+      </c>
+      <c r="AJ191">
         <v>1988</v>
       </c>
-      <c r="AJ191">
-        <v>0</v>
-      </c>
       <c r="AK191">
         <v>0</v>
       </c>
       <c r="AL191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM191">
+        <v>0</v>
+      </c>
+      <c r="AN191">
+        <v>1</v>
+      </c>
+      <c r="AO191">
         <v>9445</v>
       </c>
     </row>
-    <row r="192" spans="1:39">
+    <row r="192" spans="1:41">
       <c r="A192" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -23319,24 +24471,30 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI192">
+        <v>0</v>
+      </c>
+      <c r="AJ192">
         <v>1988</v>
       </c>
-      <c r="AJ192">
-        <v>0</v>
-      </c>
       <c r="AK192">
         <v>0</v>
       </c>
       <c r="AL192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM192">
+        <v>0</v>
+      </c>
+      <c r="AN192">
+        <v>1</v>
+      </c>
+      <c r="AO192">
         <v>176153</v>
       </c>
     </row>
-    <row r="193" spans="1:39">
+    <row r="193" spans="1:41">
       <c r="A193" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -23435,18 +24593,24 @@
         <v>0.872543040865847</v>
       </c>
       <c r="AI193">
+        <v>0</v>
+      </c>
+      <c r="AJ193">
         <v>1988</v>
       </c>
-      <c r="AJ193">
-        <v>0</v>
-      </c>
       <c r="AK193">
         <v>0</v>
       </c>
       <c r="AL193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM193">
+        <v>0</v>
+      </c>
+      <c r="AN193">
+        <v>1</v>
+      </c>
+      <c r="AO193">
         <v>167734</v>
       </c>
     </row>

--- a/output/proyde.xlsx
+++ b/output/proyde.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
+    <t>Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_LatinAmerica</t>
+    <t>LatinAmerica</t>
   </si>
   <si>
-    <t>Vision_ONGD_Africa</t>
+    <t>Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confessional</t>
+    <t>Confessional</t>
   </si>
   <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
+    <t>Donor_Aid_Budget</t>
   </si>
   <si>
-    <t>Total_Fondos</t>
+    <t>Total_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_Privados</t>
+    <t>%_Private_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -509,9 +509,6 @@
   </si>
   <si>
     <t>2014_eritrea</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2014_etiopia</t>
@@ -1198,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6490</v>
+        <v>7854.952374701078</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1320,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1442,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>680</v>
+        <v>697.6889104500298</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1544,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1564,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1686,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1808,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7800</v>
+        <v>9502.243585046588</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1930,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2052,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8320</v>
+        <v>10594.98659239237</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2174,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2296,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2418,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D12">
         <v>126752</v>
@@ -2540,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1120</v>
+        <v>1268.249210347625</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2662,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2010</v>
+        <v>2609.688011589589</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2784,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9190</v>
+        <v>8492.617491932626</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2906,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>420</v>
+        <v>471.9591970298227</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3028,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>480</v>
+        <v>471.181692645893</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3150,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6190</v>
+        <v>7328.615628939658</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3272,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1330</v>
+        <v>1286.515571617672</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3394,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>910</v>
+        <v>892.5687203369533</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3516,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>9970</v>
+        <v>17288.8595992193</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3638,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2370</v>
+        <v>2644.817039097506</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3760,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>790</v>
+        <v>1036.533951644687</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3882,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>570</v>
+        <v>647.8358464534491</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4004,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1190</v>
+        <v>1213.112645064426</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4126,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>650</v>
+        <v>672.4244025624427</v>
       </c>
       <c r="D26">
         <v>520872</v>
@@ -4248,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>2140</v>
+        <v>2292.445156190819</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4370,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>560</v>
+        <v>534.0443668101981</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4492,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>570</v>
+        <v>501.3556332662463</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4614,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>380</v>
+        <v>341.5541149051794</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4736,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>960</v>
+        <v>951.6879611168786</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4858,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>570</v>
+        <v>612.3436990512633</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4980,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1260</v>
+        <v>1401.47747416771</v>
       </c>
       <c r="D33">
         <v>880157</v>
@@ -5102,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5224,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5326,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35">
         <v>0</v>
@@ -5346,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5468,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>9270</v>
+        <v>10385.96443195552</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5590,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5712,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5834,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>4070</v>
+        <v>4355.934938677345</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5956,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6078,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>4580</v>
+        <v>5076.340174387075</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -6200,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>8610</v>
+        <v>8209.919456216903</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6322,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1730</v>
+        <v>1949.352518385613</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6444,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>7480</v>
+        <v>7761.646190572197</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6566,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>10710</v>
+        <v>10883.31535948899</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6688,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>800</v>
+        <v>1037.747039954749</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6810,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6932,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>11080</v>
+        <v>11627.81065059172</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7054,7 +7051,7 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>600</v>
+        <v>670.2645481663891</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7176,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1350</v>
+        <v>1303.425880277445</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7298,7 +7295,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>880</v>
+        <v>863.7612548677739</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7420,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1120</v>
+        <v>1132.548400540401</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7542,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7664,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>720</v>
+        <v>537.4913682903079</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7786,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>390</v>
+        <v>369.2024078290272</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7908,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -8030,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>650</v>
+        <v>694.6031345426339</v>
       </c>
       <c r="D58">
         <v>520872</v>
@@ -8152,7 +8149,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>11530</v>
+        <v>17610.30663334184</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8274,7 +8271,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8376,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM60">
         <v>0</v>
@@ -8396,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>990</v>
+        <v>982.980837581714</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8518,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>420</v>
+        <v>466.3491752969743</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8640,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8762,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8884,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>1090</v>
+        <v>992.8781394745556</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -9006,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1890</v>
+        <v>1928.292679849684</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -9128,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9250,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9372,7 +9369,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>620</v>
+        <v>644.763840173281</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9494,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>8620</v>
+        <v>8415.999185225515</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9616,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>2850</v>
+        <v>3014.578744505088</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9738,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>6990</v>
+        <v>7454.720164783006</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9860,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>1480</v>
+        <v>1591.56825353313</v>
       </c>
       <c r="D73">
         <v>292210</v>
@@ -9982,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>4950</v>
+        <v>5094.472660592368</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -10226,7 +10223,7 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>610</v>
+        <v>553.2014555484933</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10348,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>11890</v>
+        <v>10649.8372874572</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10470,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>4760</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10592,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10714,7 +10711,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10836,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>760</v>
+        <v>701.4459636783288</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10938,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="AL81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM81">
         <v>0</v>
@@ -10958,7 +10955,7 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>430</v>
+        <v>467.435789903935</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -11080,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>550</v>
+        <v>513.7390871590731</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -11202,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1360</v>
+        <v>1325.930225429421</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11324,7 +11321,7 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>960</v>
+        <v>909.3123437708064</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11446,7 +11443,7 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>820</v>
+        <v>1057.667740311969</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11568,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>650</v>
+        <v>692.4450379203138</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11690,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>1230</v>
+        <v>1223.631935023299</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11812,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>670</v>
+        <v>719.6981727039259</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11934,7 +11931,7 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>590</v>
+        <v>573.9239887389259</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -12056,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>2840</v>
+        <v>2634.85005236495</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -12178,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12300,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>1050</v>
+        <v>1000.829216794104</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12422,7 +12419,7 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>8780</v>
+        <v>8629.143035230249</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12544,7 +12541,7 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>1710</v>
+        <v>1745.10167474004</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12666,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>640</v>
+        <v>869.6014949562591</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12788,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>5520</v>
+        <v>5437.877690816224</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12910,7 +12907,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>12870</v>
+        <v>10784.63069920566</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -13032,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>5510</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -13154,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13276,7 +13273,7 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -13398,7 +13395,7 @@
         <v>1</v>
       </c>
       <c r="C102">
-        <v>800</v>
+        <v>720.7128711178943</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -13500,7 +13497,7 @@
         <v>0</v>
       </c>
       <c r="AL102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM102">
         <v>0</v>
@@ -13520,7 +13517,7 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>440</v>
+        <v>465.3887773612468</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -13642,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>620</v>
+        <v>534.5063430177229</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -13764,7 +13761,7 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>1430</v>
+        <v>1360.10887014004</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -13886,7 +13883,7 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>970</v>
+        <v>929.4690557368662</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -14008,7 +14005,7 @@
         <v>1</v>
       </c>
       <c r="C107">
-        <v>890</v>
+        <v>1102.527430026863</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -14130,7 +14127,7 @@
         <v>1</v>
       </c>
       <c r="C108">
-        <v>690</v>
+        <v>711.0361291687414</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -14252,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>1320</v>
+        <v>1299.811672673934</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -14374,7 +14371,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>700</v>
+        <v>731.5588677998553</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -14496,7 +14493,7 @@
         <v>1</v>
       </c>
       <c r="C111">
-        <v>620</v>
+        <v>593.1620921048029</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -14618,7 +14615,7 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>3030</v>
+        <v>2632.058233068435</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -14740,7 +14737,7 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -14862,7 +14859,7 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>1130</v>
+        <v>1032.277326842402</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -14984,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>9250</v>
+        <v>8965.648525048287</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -15106,7 +15103,7 @@
         <v>1</v>
       </c>
       <c r="C116">
-        <v>1210</v>
+        <v>1778.60982580794</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -15228,7 +15225,7 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>650</v>
+        <v>872.1235974568563</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -15350,7 +15347,7 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>5720</v>
+        <v>5558.73713990153</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -15472,7 +15469,7 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>12350</v>
+        <v>10398.69400694643</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -15594,7 +15591,7 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>930</v>
+        <v>1140.447753778042</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -15716,7 +15713,7 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>690</v>
+        <v>720.1523351943922</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -15838,7 +15835,7 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>1480</v>
+        <v>1401.753174264641</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -15960,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>980</v>
+        <v>961.3778847738438</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -16082,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="C124">
-        <v>1450</v>
+        <v>1379.14068216006</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -16203,8 +16200,8 @@
       <c r="B125">
         <v>1</v>
       </c>
-      <c r="C125" t="s">
-        <v>165</v>
+      <c r="C125">
+        <v>0</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -16320,13 +16317,13 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
       <c r="C126">
-        <v>550</v>
+        <v>449.4203771491282</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -16442,13 +16439,13 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -16564,13 +16561,13 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>740</v>
+        <v>741.0381351906716</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -16686,13 +16683,13 @@
     </row>
     <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129">
-        <v>13220</v>
+        <v>16146.07242861928</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -16808,13 +16805,13 @@
     </row>
     <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130">
-        <v>830</v>
+        <v>730.3063521039821</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -16916,7 +16913,7 @@
         <v>0</v>
       </c>
       <c r="AL130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM130">
         <v>0</v>
@@ -16930,13 +16927,13 @@
     </row>
     <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>1240</v>
+        <v>1060.095015975378</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -17052,13 +17049,13 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132">
-        <v>440</v>
+        <v>468.1130345750273</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -17174,13 +17171,13 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>10510</v>
+        <v>9839.050190896</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -17296,13 +17293,13 @@
     </row>
     <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -17418,13 +17415,13 @@
     </row>
     <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="C135">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -17540,13 +17537,13 @@
     </row>
     <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>5780</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -17662,13 +17659,13 @@
     </row>
     <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -17784,13 +17781,13 @@
     </row>
     <row r="138" spans="1:41">
       <c r="A138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138">
-        <v>720</v>
+        <v>723.2321880005983</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -17906,13 +17903,13 @@
     </row>
     <row r="139" spans="1:41">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>9610</v>
+        <v>9306.24338328295</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -18028,13 +18025,13 @@
     </row>
     <row r="140" spans="1:41">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140">
-        <v>6750</v>
+        <v>7582.696928894958</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -18150,13 +18147,13 @@
     </row>
     <row r="141" spans="1:41">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>5760</v>
+        <v>5589.325590947018</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -18272,13 +18269,13 @@
     </row>
     <row r="142" spans="1:41">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142">
-        <v>640</v>
+        <v>612.1489724037899</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -18394,13 +18391,13 @@
     </row>
     <row r="143" spans="1:41">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>1100</v>
+        <v>831.8504623916352</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -18516,13 +18513,13 @@
     </row>
     <row r="144" spans="1:41">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>12600</v>
+        <v>10568.15780870825</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -18638,13 +18635,13 @@
     </row>
     <row r="145" spans="1:41">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145">
-        <v>860</v>
+        <v>1128.996380299766</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -18760,13 +18757,13 @@
     </row>
     <row r="146" spans="1:41">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="C146">
-        <v>630</v>
+        <v>726.6520119370772</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -18882,13 +18879,13 @@
     </row>
     <row r="147" spans="1:41">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="C147">
-        <v>1440</v>
+        <v>1441.783971398429</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -19004,13 +19001,13 @@
     </row>
     <row r="148" spans="1:41">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="C148">
-        <v>880</v>
+        <v>956.659691840205</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -19126,13 +19123,13 @@
     </row>
     <row r="149" spans="1:41">
       <c r="A149" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>1480</v>
+        <v>1463.71052702022</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -19248,13 +19245,13 @@
     </row>
     <row r="150" spans="1:41">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
-      <c r="C150" t="s">
-        <v>165</v>
+      <c r="C150">
+        <v>0</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -19370,13 +19367,13 @@
     </row>
     <row r="151" spans="1:41">
       <c r="A151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="C151">
-        <v>600</v>
+        <v>482.6390663355013</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -19492,13 +19489,13 @@
     </row>
     <row r="152" spans="1:41">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="C152">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -19614,13 +19611,13 @@
     </row>
     <row r="153" spans="1:41">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="C153">
-        <v>750</v>
+        <v>750.4706590411453</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -19736,13 +19733,13 @@
     </row>
     <row r="154" spans="1:41">
       <c r="A154" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="C154">
-        <v>10840</v>
+        <v>14093.81249338665</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -19858,13 +19855,13 @@
     </row>
     <row r="155" spans="1:41">
       <c r="A155" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="C155">
-        <v>810</v>
+        <v>729.1196658666737</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -19966,7 +19963,7 @@
         <v>0</v>
       </c>
       <c r="AL155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM155">
         <v>0</v>
@@ -19980,13 +19977,13 @@
     </row>
     <row r="156" spans="1:41">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="C156">
-        <v>1290</v>
+        <v>1093.134170274031</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -20102,13 +20099,13 @@
     </row>
     <row r="157" spans="1:41">
       <c r="A157" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="C157">
-        <v>420</v>
+        <v>469.9423670895969</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -20224,13 +20221,13 @@
     </row>
     <row r="158" spans="1:41">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="C158">
-        <v>10170</v>
+        <v>10037.20149040966</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -20346,13 +20343,13 @@
     </row>
     <row r="159" spans="1:41">
       <c r="A159" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="C159">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -20468,13 +20465,13 @@
     </row>
     <row r="160" spans="1:41">
       <c r="A160" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="C160">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -20590,13 +20587,13 @@
     </row>
     <row r="161" spans="1:41">
       <c r="A161" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="C161">
-        <v>5620</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -20712,13 +20709,13 @@
     </row>
     <row r="162" spans="1:41">
       <c r="A162" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="C162">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -20834,13 +20831,13 @@
     </row>
     <row r="163" spans="1:41">
       <c r="A163" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="C163">
-        <v>730</v>
+        <v>767.6026452352251</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -20956,13 +20953,13 @@
     </row>
     <row r="164" spans="1:41">
       <c r="A164" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="C164">
-        <v>9520</v>
+        <v>9712.081402446996</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -21078,13 +21075,13 @@
     </row>
     <row r="165" spans="1:41">
       <c r="A165" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="C165">
-        <v>6050</v>
+        <v>7556.788578822353</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -21200,13 +21197,13 @@
     </row>
     <row r="166" spans="1:41">
       <c r="A166" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
       <c r="C166">
-        <v>5710</v>
+        <v>5741.353911483523</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -21322,13 +21319,13 @@
     </row>
     <row r="167" spans="1:41">
       <c r="A167" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="C167">
-        <v>640</v>
+        <v>630.9372503341563</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -21444,13 +21441,13 @@
     </row>
     <row r="168" spans="1:41">
       <c r="A168" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="C168">
-        <v>1020</v>
+        <v>730.9320426740553</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -21566,13 +21563,13 @@
     </row>
     <row r="169" spans="1:41">
       <c r="A169" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
       <c r="C169">
-        <v>820</v>
+        <v>1134.924536209078</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -21688,13 +21685,13 @@
     </row>
     <row r="170" spans="1:41">
       <c r="A170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
       <c r="C170">
-        <v>600</v>
+        <v>747.8284752776283</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -21810,13 +21807,13 @@
     </row>
     <row r="171" spans="1:41">
       <c r="A171" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="C171">
-        <v>1380</v>
+        <v>1469.192636109792</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -21932,13 +21929,13 @@
     </row>
     <row r="172" spans="1:41">
       <c r="A172" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
       <c r="C172">
-        <v>1530</v>
+        <v>1529.507453727912</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -22054,13 +22051,13 @@
     </row>
     <row r="173" spans="1:41">
       <c r="A173" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
-      <c r="C173" t="s">
-        <v>165</v>
+      <c r="C173">
+        <v>6550.274372976741</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -22176,13 +22173,13 @@
     </row>
     <row r="174" spans="1:41">
       <c r="A174" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="C174">
-        <v>3460</v>
+        <v>2761.386198249428</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -22298,13 +22295,13 @@
     </row>
     <row r="175" spans="1:41">
       <c r="A175" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
       <c r="C175">
-        <v>660</v>
+        <v>514.0573067519859</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -22420,13 +22417,13 @@
     </row>
     <row r="176" spans="1:41">
       <c r="A176" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
       <c r="C176">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -22542,13 +22539,13 @@
     </row>
     <row r="177" spans="1:41">
       <c r="A177" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
       <c r="C177">
-        <v>770</v>
+        <v>809.9545825255682</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -22664,13 +22661,13 @@
     </row>
     <row r="178" spans="1:41">
       <c r="A178" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
       <c r="C178">
-        <v>8260</v>
+        <v>12358.30403621203</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -22786,13 +22783,13 @@
     </row>
     <row r="179" spans="1:41">
       <c r="A179" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179">
-        <v>780</v>
+        <v>729.8559996981501</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -22894,7 +22891,7 @@
         <v>0</v>
       </c>
       <c r="AL179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM179">
         <v>0</v>
@@ -22908,13 +22905,13 @@
     </row>
     <row r="180" spans="1:41">
       <c r="A180" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
       <c r="C180">
-        <v>1360</v>
+        <v>1129.713195979213</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -23030,13 +23027,13 @@
     </row>
     <row r="181" spans="1:41">
       <c r="A181" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
       <c r="C181">
-        <v>7250</v>
+        <v>6411.986543373589</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -23152,13 +23149,13 @@
     </row>
     <row r="182" spans="1:41">
       <c r="A182" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
       <c r="C182">
-        <v>400</v>
+        <v>475.7454935403655</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -23274,13 +23271,13 @@
     </row>
     <row r="183" spans="1:41">
       <c r="A183" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
       <c r="C183">
-        <v>9410</v>
+        <v>10205.79575322194</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -23396,13 +23393,13 @@
     </row>
     <row r="184" spans="1:41">
       <c r="A184" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
       <c r="C184">
-        <v>490</v>
+        <v>584.2111078769213</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -23518,13 +23515,13 @@
     </row>
     <row r="185" spans="1:41">
       <c r="A185" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185">
-        <v>770</v>
+        <v>729.6614300490079</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -23640,13 +23637,13 @@
     </row>
     <row r="186" spans="1:41">
       <c r="A186" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
       <c r="C186">
-        <v>5390</v>
+        <v>5089.61202008711</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -23762,13 +23759,13 @@
     </row>
     <row r="187" spans="1:41">
       <c r="A187" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
       <c r="C187">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -23884,13 +23881,13 @@
     </row>
     <row r="188" spans="1:41">
       <c r="A188" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
       <c r="C188">
-        <v>720</v>
+        <v>792.6212731169028</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -24006,13 +24003,13 @@
     </row>
     <row r="189" spans="1:41">
       <c r="A189" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
       <c r="C189">
-        <v>9530</v>
+        <v>10236.89594140222</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -24128,13 +24125,13 @@
     </row>
     <row r="190" spans="1:41">
       <c r="A190" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
       <c r="C190">
-        <v>5470</v>
+        <v>7476.621011558085</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -24250,13 +24247,13 @@
     </row>
     <row r="191" spans="1:41">
       <c r="A191" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
       <c r="C191">
-        <v>5690</v>
+        <v>5916.126072105049</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -24372,13 +24369,13 @@
     </row>
     <row r="192" spans="1:41">
       <c r="A192" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
       <c r="C192">
-        <v>610</v>
+        <v>649.4459389945755</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -24494,13 +24491,13 @@
     </row>
     <row r="193" spans="1:41">
       <c r="A193" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
       <c r="C193">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D193">
         <v>0</v>

--- a/output/proyde.xlsx
+++ b/output/proyde.xlsx
@@ -2418,7 +2418,7 @@
         <v>4729.735976516416</v>
       </c>
       <c r="D12">
-        <v>126752</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>172627</v>
@@ -4980,7 +4980,7 @@
         <v>1401.47747416771</v>
       </c>
       <c r="D33">
-        <v>880157</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -8030,7 +8030,7 @@
         <v>694.6031345426339</v>
       </c>
       <c r="D58">
-        <v>520872</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>11330</v>
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>2580.369788543324</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -12913,7 +12913,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>41319.5</v>
+        <v>49403</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>14717</v>
+        <v>24</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>4800.5</v>
+        <v>65487</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -13279,7 +13279,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>654.5</v>
+        <v>307419</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -13401,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>11597.5</v>
+        <v>367134</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -13523,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>64233.5</v>
+        <v>36513</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -13645,7 +13645,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>56689.5</v>
+        <v>76009</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>11449.5</v>
+        <v>128618</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>5400</v>
+        <v>27885</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>111362</v>
+        <v>243787</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -14133,7 +14133,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>59901</v>
+        <v>84061</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -14255,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>22611.5</v>
+        <v>50019</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -14377,7 +14377,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>56850</v>
+        <v>411812</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -14499,7 +14499,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>42847</v>
+        <v>66583</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -14621,7 +14621,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>3216.5</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -14743,7 +14743,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>29787</v>
+        <v>34703</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -14865,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>8486.5</v>
+        <v>6002</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -14987,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>21993.5</v>
+        <v>18007</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -15109,7 +15109,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>108077.5</v>
+        <v>173381</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -15231,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>300.5</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -15353,7 +15353,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>4752</v>
+        <v>10964</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -16201,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>447.27</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -18525,7 +18525,7 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>44500</v>
+        <v>41319.5</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -18638,7 +18638,7 @@
         <v>184</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145">
         <v>1128.996380299766</v>
@@ -18647,7 +18647,7 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>189070.5</v>
+        <v>111362</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -18760,7 +18760,7 @@
         <v>185</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146">
         <v>726.6520119370772</v>
@@ -18769,7 +18769,7 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>185529</v>
+        <v>59901</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -18891,7 +18891,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>34878.5</v>
+        <v>11449.5</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -19004,7 +19004,7 @@
         <v>187</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148">
         <v>956.659691840205</v>
@@ -19013,7 +19013,7 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>7002.5</v>
+        <v>5400</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -19135,7 +19135,7 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>46471</v>
+        <v>22611.5</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -19248,16 +19248,16 @@
         <v>189</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>436.09</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>14037.5</v>
+        <v>0</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -19370,7 +19370,7 @@
         <v>190</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151">
         <v>482.6390663355013</v>
@@ -19379,7 +19379,7 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <v>21041.5</v>
+        <v>0</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -19501,7 +19501,7 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>47623</v>
+        <v>654.5</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -19623,7 +19623,7 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>21743.5</v>
+        <v>56850</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -19736,7 +19736,7 @@
         <v>193</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154">
         <v>14093.81249338665</v>
@@ -19745,7 +19745,7 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>13000.5</v>
+        <v>0</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -19858,7 +19858,7 @@
         <v>194</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155">
         <v>729.1196658666737</v>
@@ -19867,7 +19867,7 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>28710</v>
+        <v>11597.5</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>5150</v>
+        <v>8486.5</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -20102,7 +20102,7 @@
         <v>196</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>469.9423670895969</v>
@@ -20111,7 +20111,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>40888.5</v>
+        <v>64233.5</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -20233,7 +20233,7 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>1097.5</v>
+        <v>0</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -20346,7 +20346,7 @@
         <v>198</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159">
         <v>579.0880693780265</v>
@@ -20355,7 +20355,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>96089.5</v>
+        <v>56689.5</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -20477,7 +20477,7 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>625</v>
+        <v>29787</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -20599,7 +20599,7 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>18839.5</v>
+        <v>14717</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -20721,7 +20721,7 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>6339</v>
+        <v>4800.5</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -20834,7 +20834,7 @@
         <v>202</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163">
         <v>767.6026452352251</v>
@@ -20843,7 +20843,7 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>1570</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -20965,7 +20965,7 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>23272</v>
+        <v>21993.5</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -21087,7 +21087,7 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -21209,7 +21209,7 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>9700</v>
+        <v>4752</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -21322,7 +21322,7 @@
         <v>206</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167">
         <v>630.9372503341563</v>
@@ -21331,7 +21331,7 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>87062</v>
+        <v>42847</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -21453,7 +21453,7 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>27232</v>
+        <v>0</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>171.03</v>
       </c>
       <c r="D193">
         <v>0</v>
